--- a/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
@@ -1673,25 +1673,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.01403879839926958</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.08564825356006622</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.138478696346283</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1184854353887835</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>12.47093454003334</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.02390255779027939</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1391251534223557</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1967458575963974</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1546045206010464</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>21.38676941394806</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,25 +2808,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9987873435020447</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8839657306671143</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3870300948619843</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9993934878225116</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>29.62057292461395</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>2.130226612091064</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.354457974433899</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.5828266143798828</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.459529585890969</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>41.31973683834076</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,25 +3940,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2528464794158936</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3920703828334808</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.157238632440567</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5028384227720606</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>13.71990442276001</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>4.930811405181885</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>2.12656831741333</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.8153371214866638</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>2.220543042857284</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>55.9008002281189</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4964,25 +5072,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9443676471710205</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.9455717206001282</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3486724197864532</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9717858031330878</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>29.3323814868927</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2479029893875122</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.473482221364975</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1753400415182114</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4978985733937307</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>15.93222320079803</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,25 +6202,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.09379643946886063</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2136306911706924</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.454485297203064</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3062620437939717</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>37.5301331281662</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05422258377075195</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1839430332183838</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.09845769405365</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2328574322858344</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>35.58951318264008</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7152,25 +7332,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.0942012146115303</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1956831812858582</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.47914445400238</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3069221637671843</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>34.08902883529663</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1572651714086533</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3179438412189484</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.885540366172791</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3965667300829121</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>49.61187839508057</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8246,25 +8462,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1304368078708649</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3028835952281952</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.437156796455383</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3611603630949344</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>61.20865941047668</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>240.9044799804688</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>12.87742042541504</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>41.94502639770508</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>15.52109789868193</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>188.4828567504883</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9340,25 +9592,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.288314461708069</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.7860037684440613</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.8545868992805481</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.135039409759885</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.01311123371124</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.663363933563232</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.8633406162261963</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.9605842232704163</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.289714671376283</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>31.82554543018341</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10434,25 +10722,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.005721092224121</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5728103518486023</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7332011461257935</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.00285646641188</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>23.76003265380859</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>128157.1015625</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>288.920654296875</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>182.5970916748047</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>357.9903651811037</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>196.2218642234802</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11528,25 +11852,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9898592233657837</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5721501708030701</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4407384693622589</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9949166916711085</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>23.30817580223083</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.7723504304885864</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4601907730102539</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3775758445262909</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.8788347003211618</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>19.71908062696457</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12442,13 +12802,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03106222674250603</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1354154348373413</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1800485700368881</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1762447921003796</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>20.24961113929749</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -13536,25 +13914,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04411061108112335</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1781222820281982</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3842163383960724</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2100252629593006</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>29.90503907203674</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03052598424255848</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1446352601051331</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.339775413274765</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1747168687979454</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>24.4017094373703</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14450,13 +14864,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02923228964209557</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1375604569911957</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2524979114532471</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1709745292202776</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>21.02278620004654</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -15364,13 +15796,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.390192747116089</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.9242071509361267</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.960486531257629</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.17906435240664</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>73.75606894493103</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -16278,13 +16728,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04232475906610489</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1780586838722229</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.06579471379518509</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2057298205562453</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>6.434477120637894</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -17192,13 +17660,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1981948763132095</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3867747783660889</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1396024227142334</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4451908313445028</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.93742614984512</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -18106,13 +18592,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1572136431932449</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2941384315490723</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1360977292060852</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3965017568602249</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>12.13674172759056</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -19200,25 +19704,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.0321192666888237</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1386040151119232</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2596614360809326</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1792184886913839</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>21.1701974272728</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.02385434322059155</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1188379898667336</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2230020761489868</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1544485131705435</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>18.33982616662979</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20294,25 +20834,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2154451161623001</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.431147426366806</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1518304795026779</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4641606577062516</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>16.59616976976395</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2351782768964767</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4439713358879089</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1557722240686417</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.484951829459872</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>17.11426377296448</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -21389,25 +21965,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.209817036986351</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3893572986125946</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1614001393318176</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4580578969806666</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>15.77554941177368</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2680167853832245</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3688438534736633</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1816861778497696</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5177033758661658</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>14.38793241977692</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -22484,25 +23096,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1653947234153748</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2876867353916168</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.119258739054203</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4066875009333023</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>10.42862832546234</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06582128256559372</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1737470626831055</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.07097211480140686</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2565565874531264</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>6.640797853469849</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -23581,25 +24229,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.01852564513683319</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1184630542993546</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.176482766866684</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1361089458369037</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>16.84362888336182</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04516223445534706</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1925747990608215</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.307047963142395</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2125140806049026</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.92925727367401</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24679,25 +25363,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04596611112356186</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1639241427183151</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3998003304004669</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2143970874885241</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.47496163845062</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04462240263819695</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1692184954881668</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3817660510540009</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.211240153943792</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>27.46331989765167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25775,25 +26495,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03766119107604027</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1596775650978088</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3080039024353027</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1940649145931337</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>24.02566969394684</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03357824683189392</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.15959432721138</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2798113226890564</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1832436815606309</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>24.22424554824829</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01799188092531194</v>
+        <v>0.01799188092531189</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1186304499816318</v>
+        <v>0.1186304499816319</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1696272826101052</v>
+        <v>0.1696272826101057</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1341338172323145</v>
+        <v>0.1341338172323143</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>18.0019764291762</v>
+        <v>18.00197642917625</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03250270772802853</v>
+        <v>0.03250270772802855</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1480394330773291</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2042278559671629</v>
+        <v>0.204227855967163</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.1802850735031288</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.89406442753662</v>
+        <v>23.89406442753663</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.01118900298515873</v>
+        <v>0.01118900298515874</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.07668177639330716</v>
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.01552337286616138</v>
+        <v>0.01550153561070282</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.09412684266426016</v>
+        <v>0.09372146335544822</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.1239986065745344</v>
+        <v>0.123171106758658</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.1245928283095033</v>
+        <v>0.1245051629881381</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>13.82253773868124</v>
+        <v>13.74304619750533</v>
       </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
@@ -1621,25 +1621,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02454806864261627</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1325255483388901</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1860867589712143</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1566782328296317</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>18.90171468257904</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02332827635109425</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.128748893737793</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1842029243707657</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1527359694083036</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>18.32515150308609</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1647,25 +1683,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01939739659428596</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1180914342403412</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1522219330072403</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1392745367764185</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>15.78697562217712</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01677794009447098</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1103323698043823</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1427980214357376</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1295296880814239</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>14.70691412687302</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1905,19 +1977,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.316257459259814e-07</v>
+        <v>1.316257459281238e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0002509969180623411</v>
+        <v>0.0002509969180605647</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001063982959869561</v>
+        <v>0.0001063982959866505</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.000362802626680102</v>
+        <v>0.0003628026266830545</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01063862700105892</v>
+        <v>0.01063862700102832</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -1935,19 +2007,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.727911777819436e-07</v>
+        <v>1.727911777847357e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0002949255704050214</v>
+        <v>0.0002949255704072701</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001284744009868344</v>
+        <v>0.0001284744009880218</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0004156815822019826</v>
+        <v>0.0004156815822053411</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01284561624103805</v>
+        <v>0.01284561624115674</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2535,19 +2607,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6078984849160221</v>
+        <v>0.6086182765521359</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6840659032966501</v>
+        <v>0.6845426339278894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.259376348118904</v>
+        <v>0.2595332359656445</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7796784496932194</v>
+        <v>0.7801399083191013</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>29.86947791820535</v>
+        <v>29.88980819984664</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -2565,19 +2637,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.078283709538303</v>
+        <v>1.07861186851093</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.849991138067711</v>
+        <v>0.8499403845157621</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3201176399732832</v>
+        <v>0.3201005216220794</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.038404405584983</v>
+        <v>1.038562404726326</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>40.38705434272022</v>
+        <v>40.39003869746673</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -2756,25 +2828,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1749741733074188</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2653410732746124</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1345875412225723</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4182991433261833</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.86005866527557</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1543029248714447</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3140426576137543</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1424289345741272</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.392814109817156</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>12.69724071025848</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2782,25 +2890,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.08758309483528137</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2346005886793137</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08800946176052094</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2959444117318004</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.568159490823746</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.08526741713285446</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2352619171142578</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.08562690764665604</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2920058511962637</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.664602041244507</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3037,19 +3181,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.006371306604033e-07</v>
+        <v>1.006371306663197e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0002691268281108465</v>
+        <v>0.000269126828118174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001040660305456761</v>
+        <v>0.0001040660305488876</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0003172335585344074</v>
+        <v>0.0003172335585437324</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01040612305277321</v>
+        <v>0.01040612305309429</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3067,19 +3211,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.130340477544446e-07</v>
+        <v>1.130340477533571e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0002833157117037152</v>
+        <v>0.0002833157117024222</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001115889330339836</v>
+        <v>0.0001115889330335266</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0003362053654456523</v>
+        <v>0.000336205365444035</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01115803398566863</v>
+        <v>0.01115803398562293</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3667,19 +3811,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7489883016605541</v>
+        <v>0.7492626955175575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7321414089766959</v>
+        <v>0.7325335139376152</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2619467395704661</v>
+        <v>0.2621024466703848</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8654411023637334</v>
+        <v>0.8655996161722563</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.94810075225475</v>
+        <v>31.96611805732551</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -3697,19 +3841,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.5495194455850462</v>
+        <v>0.5481615552185745</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.6398809239927523</v>
+        <v>0.6386039482716268</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2273852633809631</v>
+        <v>0.226952961432004</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.7412957881878502</v>
+        <v>0.7403793319769093</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>26.72231068941342</v>
+        <v>26.66730399344544</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -3888,25 +4032,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.09070257842540741</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2426358908414841</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.09665854275226593</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3011686876576106</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>9.156838804483414</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.07683028280735016</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2003920823335648</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.08035136014223099</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2771827606604533</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>7.602876424789429</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3914,25 +4094,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04132604971528053</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1448902934789658</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.05583205446600914</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2032880953604528</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>5.348639190196991</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.0539793036878109</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1976973563432693</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07362658530473709</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2323344651312217</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.234495878219604</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4169,19 +4385,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.028473348478248e-07</v>
+        <v>1.02847334851216e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0002621515513546899</v>
+        <v>0.0002621515513588971</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.324462571796415e-05</v>
+        <v>9.324462571925277e-05</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0003206981990093253</v>
+        <v>0.0003206981990146124</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.009325024423459453</v>
+        <v>0.009325024423588337</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4199,19 +4415,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.803863798103282e-07</v>
+        <v>1.803863798138385e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0003511594068898654</v>
+        <v>0.0003511594068916885</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001233371673693741</v>
+        <v>0.0001233371673695536</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0004247191775871773</v>
+        <v>0.0004247191775913098</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01233477857710805</v>
+        <v>0.012334778577126</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4737,19 +4953,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7562130919058504</v>
+        <v>0.7605740271406559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7362727782915206</v>
+        <v>0.7379304390745471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2657039623245342</v>
+        <v>0.2662794808010879</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8696051356252735</v>
+        <v>0.8721089537097162</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>33.17018810874994</v>
+        <v>33.26696223932096</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -4763,23 +4979,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.4897622106881388</v>
+        <v>3.383821471523565</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.6055992420454264</v>
+        <v>1.119311640794987</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.2128824861594756</v>
+        <v>0.3788120690714463</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.6998301298802009</v>
+        <v>1.839516640730267</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>24.77976771853007</v>
+        <v>59.72481856200441</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -4799,19 +5015,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9317198942959168</v>
+        <v>0.9319661323717057</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9354271260459972</v>
+        <v>0.9356818945055688</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.33518133176077</v>
+        <v>0.3352880820448175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9652563878555359</v>
+        <v>0.9653839300359757</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>40.76873558234594</v>
+        <v>40.78205918087276</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -4829,19 +5045,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.401799597200697</v>
+        <v>1.403144524660259</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.063646697146197</v>
+        <v>1.064525055753957</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3738899159021169</v>
+        <v>0.3742242383919641</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.183976181010707</v>
+        <v>1.184544015501433</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>48.55101117778508</v>
+        <v>48.59682871193121</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -5020,25 +5236,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03229110315442085</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.144840344786644</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.05238960310816765</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.179697254164945</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>5.233300849795341</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.08957663923501968</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2098898142576218</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.07146137207746506</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2992935669790109</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>7.65107050538063</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -5046,25 +5298,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06541809439659119</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2138753980398178</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.0734490305185318</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2557696119490961</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.621345669031143</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04635606706142426</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1553932726383209</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.05211317539215088</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2153045913616899</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>5.47303594648838</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -5299,7 +5587,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04905374744615793</v>
+        <v>0.04905374744615792</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1348942525282142</v>
@@ -5329,16 +5617,16 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.04854120948959904</v>
+        <v>0.04854120948959909</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1344970376261711</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.17341376202927</v>
+        <v>1.173413762029271</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2203206969161069</v>
+        <v>0.220320696916107</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>27.49387665851739</v>
@@ -5863,23 +6151,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 50, 'loss': 'linear', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04539620908189038</v>
+        <v>0.04523995081479856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1450497999753969</v>
+        <v>0.1437192886435913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.105203740346488</v>
+        <v>1.117919653408248</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.213063861510793</v>
+        <v>0.2126968519155809</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>29.71090587444836</v>
+        <v>29.45670864629709</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -5897,19 +6185,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.04241732710884383</v>
+        <v>0.04241382763379445</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.136395339142255</v>
+        <v>0.1359196002343333</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>1.082633181843099</v>
+        <v>1.082801759372579</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2059546724617915</v>
+        <v>0.2059461765457044</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>28.19582261622922</v>
+        <v>28.12498757066094</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -6150,25 +6438,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.07774229347705841</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1970323324203491</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.444095373153687</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2788230504765673</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>35.80340147018433</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05179642140865326</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1558180302381516</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.158780813217163</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2275882716851931</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.61622977256775</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6176,25 +6500,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05589989200234413</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1661050170660019</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6465443968772888</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2364315799599202</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>29.71184551715851</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.07210977375507355</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2065984159708023</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.6029661297798157</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2685326307082131</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>39.75583910942078</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6429,7 +6789,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03076230876773939</v>
+        <v>0.03076230876773941</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.10065807139648</v>
@@ -6441,7 +6801,7 @@
         <v>0.1753918720116169</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>22.56021813802045</v>
+        <v>22.56021813802044</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6471,7 +6831,7 @@
         <v>0.1755790169100948</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>22.5672482581693</v>
+        <v>22.56724825816929</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6579,7 +6939,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04710503066793487</v>
+        <v>0.04710503066793485</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1189160341904916</v>
@@ -7280,25 +7640,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08807145059108734</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2113238126039505</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.487754821777344</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.296768344995027</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>37.81505823135376</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.07890598475933075</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2196757197380066</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.439288735389709</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2809020910554614</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>39.6946132183075</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7306,25 +7702,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03402750566601753</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1318228542804718</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.4742231965065002</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1844654592763034</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>24.95155483484268</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03257254883646965</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1280371695756912</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.4175171256065369</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.180478665876246</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>23.9915058016777</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7559,13 +7991,13 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03145118012700403</v>
+        <v>0.03145118012700402</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.117610951143098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.064104257804336</v>
+        <v>1.064104257804335</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1773448057514063</v>
@@ -7592,7 +8024,7 @@
         <v>0.02877552441652384</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1025793405321778</v>
+        <v>0.1025793405321779</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>1.05677053477698</v>
@@ -7601,7 +8033,7 @@
         <v>0.169633500277875</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.62401367184036</v>
+        <v>23.62401367184038</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8157,19 +8589,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.03886447702925608</v>
+        <v>0.03802023104793961</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.0992431160232525</v>
+        <v>0.09536552666642618</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>1.23317456685236</v>
+        <v>1.224802133547911</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.197140754359052</v>
+        <v>0.1949877715343699</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>19.39078606865729</v>
+        <v>18.85263225389932</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -8410,25 +8842,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05266672372817993</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.190798744559288</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7980981469154358</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2294923173619978</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>42.56379008293152</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.3861181735992432</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.5262458920478821</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.655372858047485</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.621384078971487</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>121.3585257530212</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8436,25 +8904,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02262268774211407</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1194862499833107</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3103973865509033</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1504084031632344</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22.71043509244919</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1282892823219299</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3109447956085205</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5773970484733582</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3581749325705666</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>63.42790126800537</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8719,16 +9223,16 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.5209976961238751</v>
+        <v>0.5209976961238757</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3336778446090487</v>
+        <v>0.3336778446090488</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5726927452202</v>
+        <v>0.5726927452202003</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7218017013861044</v>
+        <v>0.7218017013861049</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>16.8131097436111</v>
@@ -9257,19 +9761,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.487695790459516</v>
+        <v>0.4878327973760587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3287005340916127</v>
+        <v>0.3295773026482997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5747910694141982</v>
+        <v>0.5751395758101681</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6983521965738463</v>
+        <v>0.6984502826802053</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.66828404891378</v>
+        <v>16.70151887488759</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -9287,19 +9791,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.4854029832400771</v>
+        <v>0.4916935594312264</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.3296097450561018</v>
+        <v>0.3336851190962686</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.5748778132703912</v>
+        <v>0.5773135506074043</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.6967086788895895</v>
+        <v>0.7012086418686142</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>16.71180645325057</v>
+        <v>16.85771970347878</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -9349,19 +9853,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.5126808550491728</v>
+        <v>0.5125596460054032</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.3589375379457481</v>
+        <v>0.3589851009121492</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.5784800973230595</v>
+        <v>0.5784668579727442</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.7160173566675412</v>
+        <v>0.7159327105290015</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>17.81382181113907</v>
+        <v>17.81557004141501</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -9540,25 +10044,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4867944121360779</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3157901167869568</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5554114580154419</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.697706537260529</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>16.16643220186234</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.6267229318618774</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.42945596575737</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.6276962757110596</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.7916583428865495</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.15201896429062</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -9566,25 +10106,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.3201611936092377</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3649970591068268</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2436615228652954</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.5658278833790693</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>15.92773944139481</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.4032975733280182</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4375962316989899</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2659848034381866</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6350571417817599</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>19.59119737148285</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -9819,7 +10395,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3963140912831226</v>
+        <v>0.3963140912831225</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.269534297037626</v>
@@ -9828,7 +10404,7 @@
         <v>0.5259475840008978</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6295348213428091</v>
+        <v>0.629534821342809</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>14.41449720095513</v>
@@ -9849,19 +10425,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4397589409703374</v>
+        <v>0.4397589409703375</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.2802417544319984</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5517433236978438</v>
+        <v>0.551743323697844</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.6631432280965684</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.86114731823628</v>
+        <v>14.86114731823627</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -10449,19 +11025,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4368918421478148</v>
+        <v>0.4371950872819007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3099215890995231</v>
+        <v>0.3101274489265561</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5470467956296716</v>
+        <v>0.5478939821423626</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6609779437680314</v>
+        <v>0.6612072952424985</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.00436902861434</v>
+        <v>16.00909854684442</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -10670,25 +11246,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.4701672792434692</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.327116847038269</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5628454089164734</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.6856874501137302</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>16.68457537889481</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.5919674038887024</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.6018090844154358</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5917347073554993</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.7693941797860849</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>29.26402390003204</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -10696,25 +11308,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.247121274471283</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3456071317195892</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1951282918453217</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.4971129393520983</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>14.79665488004684</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3134242594242096</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4044804871082306</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2051397860050201</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.5598430667822989</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.29663163423538</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -10949,19 +11597,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.334141934271855</v>
+        <v>0.3341419342718552</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2808505500743309</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2446381002270317</v>
+        <v>0.2446381002270318</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5780501139796229</v>
+        <v>0.578050113979623</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.38313770986018</v>
+        <v>14.38313770986017</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -10982,16 +11630,16 @@
         <v>0.340126881879963</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2901359492217149</v>
+        <v>0.290135949221715</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2495320181462331</v>
+        <v>0.2495320181462332</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.5832039796503132</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.79341989135393</v>
+        <v>14.79341989135394</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11609,19 +12257,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.3254648360378482</v>
+        <v>0.3250539665352255</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2323612906821257</v>
+        <v>0.2325977948451255</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2250065628136139</v>
+        <v>0.2249565098406623</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.5704952550528779</v>
+        <v>0.5701350423673548</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>12.15690422839563</v>
+        <v>12.16712239251891</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -11800,25 +12448,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.861836314201355</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.55218106508255</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4286252558231354</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9283513958633094</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>23.16338568925858</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.5935684442520142</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.5873975157737732</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3637036383152008</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.7704339324380866</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>27.23590433597565</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -11826,25 +12510,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2251513302326202</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2490508705377579</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1549052149057388</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.4745011382837983</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.92986017465591</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1186836808919907</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1755326390266418</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1087187826633453</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3445049794879468</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.192525804042816</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -12079,19 +12799,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04024338070258329</v>
+        <v>0.04024338070258308</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1568905693894851</v>
+        <v>0.1568905693894846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2316665929312097</v>
+        <v>0.2316665929312089</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2006075290276596</v>
+        <v>0.2006075290276591</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>21.58477685365698</v>
+        <v>21.58477685365693</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12193,19 +12913,19 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02430178384049008</v>
+        <v>0.02430178384049005</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1047041710264333</v>
+        <v>0.1047041710264332</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1408361689603964</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1558902942472369</v>
+        <v>0.1558902942472367</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>15.76280588655383</v>
+        <v>15.76280588655382</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -12565,19 +13285,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01796366116518693</v>
+        <v>0.01864144732692284</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09703285821281155</v>
+        <v>0.09883906472700071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1235850894140906</v>
+        <v>0.1260522448942461</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1340285833887195</v>
+        <v>0.1365336856857048</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.73066824585255</v>
+        <v>14.04369300051062</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -12750,13 +13470,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02220302820205688</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1153182238340378</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1728139221668243</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.149006805891734</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>16.40417277812958</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -12776,13 +13514,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01740426197648048</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1124673932790756</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1453363597393036</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1319252135737535</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>14.9966835975647</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -13014,16 +13770,16 @@
         <v>0.02811754820607819</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1279678585492715</v>
+        <v>0.1279678585492714</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1902326352532763</v>
+        <v>0.1902326352532762</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1676828798836607</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>20.21080586637248</v>
+        <v>20.21080586637246</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -13041,19 +13797,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02466042671762571</v>
+        <v>0.02466042671762567</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1113212340714586</v>
+        <v>0.1113212340714585</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1718583157695911</v>
+        <v>0.1718583157695909</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1570363866039515</v>
+        <v>0.1570363866039514</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.67252413352942</v>
+        <v>17.6725241335294</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -13161,7 +13917,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.00517201721740326</v>
+        <v>0.005172017217403262</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04810615178280653</v>
@@ -13170,7 +13926,7 @@
         <v>0.1053232268972721</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.07191673808928808</v>
+        <v>0.0719167380892881</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>8.828652654107922</v>
@@ -13191,10 +13947,10 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.009802168836154188</v>
+        <v>0.009802168836154189</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.06078207332955136</v>
+        <v>0.06078207332955139</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.120828637214387</v>
@@ -13609,19 +14365,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.009472719482570179</v>
+        <v>0.009477942750103491</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.06774720425084184</v>
+        <v>0.06776777832542603</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.1238688994684938</v>
+        <v>0.1238953420517738</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.09732789673351716</v>
+        <v>0.09735472638810862</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>15.23914870590729</v>
+        <v>15.24140914274994</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -13641,19 +14397,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.009008848381532965</v>
+        <v>0.009113117110149506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06558999045267945</v>
+        <v>0.06577761872476585</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1213311071757174</v>
+        <v>0.1207729945892396</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0949149534137428</v>
+        <v>0.0954626477222872</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.70905873571536</v>
+        <v>11.70677007581791</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -13671,19 +14427,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.009403936718483925</v>
+        <v>0.009421450700044614</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.06862624217690758</v>
+        <v>0.068574958619028</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.1345756537278077</v>
+        <v>0.1341344809114877</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.09697389709856939</v>
+        <v>0.09706415764866357</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>12.4862157205874</v>
+        <v>12.46129164785021</v>
       </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
@@ -13862,25 +14618,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02653678134083748</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1200392469763756</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3051103949546814</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1629011397775887</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.08976489305496</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02780359052121639</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1167361810803413</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.329108715057373</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1667440869152978</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>19.90998089313507</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -13888,25 +14680,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.007180848624557257</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.06809160113334656</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.09084025770425797</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.08473988803720038</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>9.30512472987175</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.008815323002636433</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.07380003482103348</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1006077006459236</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.09388995155306255</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>10.62471643090248</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -14141,19 +14969,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1713580497920792</v>
+        <v>0.17135804979208</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3414249082301279</v>
+        <v>0.3414249082301286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5415784986528273</v>
+        <v>0.5415784986528283</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4139541638781754</v>
+        <v>0.4139541638781763</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>68.92945276192609</v>
+        <v>68.92945276192626</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14258,7 +15086,7 @@
         <v>0.01453226210111253</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0874124153523634</v>
+        <v>0.08741241535236337</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1436647544361995</v>
@@ -14627,19 +15455,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02012478658057021</v>
+        <v>0.02005738138508543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1065030514238924</v>
+        <v>0.1058450701312444</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1678392431259075</v>
+        <v>0.1670453528090867</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1418618573844647</v>
+        <v>0.141624084763452</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.39410349216108</v>
+        <v>16.29722489525807</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -14812,13 +15640,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03201266378164291</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1487024575471878</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2621835768222809</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1789208310444676</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>22.70812690258026</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -14838,13 +15684,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02260297909379005</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1265431493520737</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2046944946050644</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1503428717757848</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.00474673509598</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -15073,16 +15937,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.01503473572473</v>
+        <v>2.015034735724739</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.017926757261285</v>
+        <v>1.017926757261286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.428211520372829</v>
+        <v>2.428211520372833</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.419519191742306</v>
+        <v>1.419519191742309</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>114.935707975681</v>
@@ -15559,19 +16423,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.006801388705756222</v>
+        <v>0.006821693242027898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06824111796146139</v>
+        <v>0.06835073174637304</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1129222344416553</v>
+        <v>0.1130816662171912</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08247053234796185</v>
+        <v>0.08259354237486062</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.76753408666212</v>
+        <v>10.78349472876502</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -15744,13 +16608,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06477328389883041</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2173795104026794</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5202620029449463</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2545059604387104</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>32.79577195644379</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -15770,13 +16652,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02876222878694534</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1429281830787659</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1995483487844467</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1695943064697201</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.17183643579483</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16005,19 +16905,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9417912160220555</v>
+        <v>0.9417912160220546</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7595408877367384</v>
+        <v>0.7595408877367388</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2704198110401618</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.970459280970642</v>
+        <v>0.9704592809706416</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.44736189641426</v>
+        <v>25.44736189641427</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16447,19 +17347,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05909676023386814</v>
+        <v>0.05754856818436247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1948417859586326</v>
+        <v>0.1939197796139092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06797519726103683</v>
+        <v>0.06780696619244417</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2430982522229811</v>
+        <v>0.2398928264545701</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.057220577267826</v>
+        <v>7.022893341063065</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -16676,13 +17576,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0459127239882946</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.180263876914978</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.06475698947906494</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2142725460442718</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>6.517954170703888</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -16702,13 +17620,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04174353554844856</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1618830263614655</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.05524401366710663</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2043123480077711</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>5.714009702205658</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16937,16 +17873,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.748770044021254</v>
+        <v>4.748770044021249</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>1.759830368441421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6583525225842665</v>
+        <v>0.6583525225842662</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.179167282248257</v>
+        <v>2.179167282248256</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>84.51012561520299</v>
@@ -17379,19 +18315,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06053632685510534</v>
+        <v>0.0584249770994457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2083677124641071</v>
+        <v>0.2060503106966107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07978808779955267</v>
+        <v>0.0782245224699419</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2460413112774059</v>
+        <v>0.2417125919339861</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.811171976026843</v>
+        <v>7.676266276980686</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -17423,19 +18359,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2963453761353924</v>
+        <v>0.2671087824402966</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4209892549819798</v>
+        <v>0.4029950769060054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1506254787811874</v>
+        <v>0.1439571733798381</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5443761347959629</v>
+        <v>0.5168256789675767</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.2063555145816</v>
+        <v>16.31077249461895</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -17608,13 +18544,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08714348077774048</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2219330817461014</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.08903943747282028</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2952007465738196</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>8.394474536180496</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -17634,13 +18588,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04853085055947304</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1760443300008774</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06596138328313828</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2202971869077611</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.373388320207596</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -17869,19 +18841,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.145750813661147</v>
+        <v>1.145750813661142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8071426284398912</v>
+        <v>0.8071426284398882</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3005445726125024</v>
+        <v>0.3005445726125018</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.070397502641494</v>
+        <v>1.070397502641492</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>33.1484647425235</v>
+        <v>33.14846474252343</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18311,19 +19283,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4901598487084519</v>
+        <v>0.4453009479119158</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4222355792481086</v>
+        <v>0.4185268792826665</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1697587795117528</v>
+        <v>0.170818254175712</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7001141683386016</v>
+        <v>0.6673087350783862</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>19.32862620592023</v>
+        <v>18.78237611289476</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -18540,13 +19512,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1800970882177353</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2735355198383331</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1374019533395767</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4243784728491012</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>11.16687580943108</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -18566,13 +19556,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05698540061712265</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1972772479057312</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07470106333494186</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2387161507253387</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.228100299835205</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -18801,19 +19809,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.012871211231286</v>
+        <v>0.01287121123128602</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.08563202834452491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1181390320346847</v>
+        <v>0.1181390320346846</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1134513606409637</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>12.53255944509988</v>
+        <v>12.53255944509987</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18831,19 +19839,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.01998722168110156</v>
+        <v>0.01998722168110158</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1209672007108276</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1790174201338879</v>
+        <v>0.1790174201338877</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1413761708390122</v>
+        <v>0.1413761708390123</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>19.98701887951248</v>
+        <v>19.98701887951245</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -19652,25 +20660,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02655385434627533</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1344816386699677</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2426425218582153</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1629535343166122</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.67508697509766</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0314946249127388</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1472607403993607</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.261135458946228</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1774672502540646</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.48561382293701</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -19678,25 +20722,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02552295103669167</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1361615806818008</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2187761068344116</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1597590405476061</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.25776451826096</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02637125924229622</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1376126855611801</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.219900906085968</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.162392300440311</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>19.43975389003754</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -19931,7 +21011,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.08879198112204004</v>
+        <v>0.08879198112204005</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2651541837938985</v>
@@ -19943,7 +21023,7 @@
         <v>0.2979798334150149</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>9.92656179902715</v>
+        <v>9.926561799027148</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19961,7 +21041,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1329966971440317</v>
+        <v>0.1329966971440318</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.2993721930238203</v>
@@ -19970,7 +21050,7 @@
         <v>0.1081281580231559</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3646871222624014</v>
+        <v>0.3646871222624016</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>11.74463826906958</v>
@@ -20782,25 +21862,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04550426080822945</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1763916462659836</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.06675609201192856</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.213317277331747</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>6.387495249509811</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05297946929931641</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1929295659065247</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.06920795887708664</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2301726945128731</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>6.983932852745056</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -20808,25 +21924,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03526343405246735</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1476266831159592</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.05027861520648003</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.187785606616874</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>5.192937701940536</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02913179993629456</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1373535245656967</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.04697148501873016</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1706804029064103</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>4.823072254657745</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -21062,10 +22214,10 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1049348382747723</v>
+        <v>0.1049348382747722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2151390074506734</v>
+        <v>0.2151390074506735</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.09334073671045441</v>
@@ -21074,7 +22226,7 @@
         <v>0.323936472591112</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.909510778174404</v>
+        <v>8.909510778174406</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21092,7 +22244,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.131998043994054</v>
+        <v>0.1319980439940541</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.2680672671904308</v>
@@ -21626,23 +22778,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'loss': 'linear', 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0784765428536945</v>
+        <v>0.07591491950636979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1731065015380712</v>
+        <v>0.1672818633787791</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08588868580845749</v>
+        <v>0.08361384324336808</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2801366503221142</v>
+        <v>0.2755266221372624</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.437251124865625</v>
+        <v>7.21137941587531</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -21913,25 +23065,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1998335868120193</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.281015932559967</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1460322886705399</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4470275011808774</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>11.43081933259964</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1691006124019623</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2694038152694702</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1339111477136612</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4112184485185</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>11.021988093853</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -21939,25 +23127,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06273440271615982</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2119255214929581</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07968056946992874</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2504683666975928</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.750237733125687</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05852317810058594</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.203957736492157</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07666804641485214</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2419156425297586</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.465347647666931</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -22199,13 +23423,13 @@
         <v>0.1919161812161036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06744969770511262</v>
+        <v>0.0674496977051126</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2733560468871107</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.178312920982592</v>
+        <v>7.178312920982591</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22232,7 +23456,7 @@
         <v>0.08245310106045693</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3209288476809656</v>
+        <v>0.3209288476809657</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>8.8746980319786</v>
@@ -22787,23 +24011,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 200, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.02752653906173544</v>
+        <v>0.0256245243102293</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1250631758805432</v>
+        <v>0.1171847919940391</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.04922286901737247</v>
+        <v>0.04692011896840049</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.1659112385034101</v>
+        <v>0.1600766201237061</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>4.742233009309222</v>
+        <v>4.524008778899448</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -23044,25 +24268,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1182957291603088</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2451522797346115</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1034855246543884</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3439414618220793</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>9.21122208237648</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.09030716121196747</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2161716222763062</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.08792337030172348</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3005114993007214</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>8.186851441860199</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -23070,25 +24330,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05203108116984367</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1913111656904221</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07126018404960632</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.22810322481246</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.912247091531754</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04887683317065239</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1900035440921783</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07033483684062958</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2210810556575402</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.866482645273209</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -23326,19 +24622,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6.50441464488855e-06</v>
+        <v>6.504414644900465e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.001989070592061765</v>
+        <v>0.001989070592063427</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.002628547921435804</v>
+        <v>0.002628547921437406</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.002550375392935038</v>
+        <v>0.002550375392937374</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.2633343576523833</v>
+        <v>0.2633343576525441</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23356,19 +24652,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>5.934531420800615e-06</v>
+        <v>5.93453142080291e-06</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.001800384312573564</v>
+        <v>0.001800384312573148</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.002301537789967145</v>
+        <v>0.002301537789966364</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.002436089370446128</v>
+        <v>0.002436089370446599</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.2305630791884</v>
+        <v>0.2305630791883216</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -23506,7 +24802,7 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.06430264874471162</v>
+        <v>0.06430264874471163</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.193774795650152</v>
@@ -23956,19 +25252,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07485286962865341</v>
+        <v>0.07534777487250792</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2169767044449127</v>
+        <v>0.2166764425534712</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2747561736254062</v>
+        <v>0.2734735582663592</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2735925248040476</v>
+        <v>0.2744954915340285</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>34.04038103683658</v>
+        <v>33.99397814685535</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -23986,19 +25282,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.07161633214140688</v>
+        <v>0.07197725124833933</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2169701203614327</v>
+        <v>0.2178498105970704</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2764069478219145</v>
+        <v>0.2776313538555579</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2676122795041492</v>
+        <v>0.2682857641551995</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>34.02026227283491</v>
+        <v>34.18934238672573</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -24177,25 +25473,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02709757350385189</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.136105090379715</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1992005109786987</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1646134062093725</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>19.31833475828171</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.01905192621052265</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1160478591918945</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1691844016313553</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1380287151665285</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>16.54569059610367</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -24203,25 +25535,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02318741753697395</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1166241094470024</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1390637308359146</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1522741525570704</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>15.60738086700439</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02586540579795837</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.142045184969902</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.188852846622467</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1608272545247178</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>19.05100643634796</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -24460,19 +25828,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01640420135517714</v>
+        <v>0.01640420135517722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09513128681164619</v>
+        <v>0.09513128681164637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1309577893551039</v>
+        <v>0.1309577893551041</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1280788872343024</v>
+        <v>0.1280788872343027</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>13.76026363770886</v>
+        <v>13.76026363770887</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -24490,19 +25858,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.016218058535638</v>
+        <v>0.01621805853563816</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.09506642640104462</v>
+        <v>0.09506642640104471</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.131807765662138</v>
+        <v>0.1318077656621381</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.127350141482599</v>
+        <v>0.1273501414825997</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>13.80481912645773</v>
+        <v>13.80481912645776</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -25058,19 +26426,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.04788991824944416</v>
+        <v>0.04792727391096695</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1697393911792148</v>
+        <v>0.1698946829458179</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.3469438707622977</v>
+        <v>0.3473102859072493</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2188376527233012</v>
+        <v>0.2189229862553655</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>27.72215875298703</v>
+        <v>27.746781640372</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1">
@@ -25090,19 +26458,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0528247845913719</v>
+        <v>0.05285270832860196</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1872066248429002</v>
+        <v>0.1874871419987469</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3786342758777813</v>
+        <v>0.3804514671483791</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2298364300788104</v>
+        <v>0.229897169031291</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.54902134273384</v>
+        <v>30.58720648262302</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -25120,19 +26488,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05432230558089055</v>
+        <v>0.05437304273981679</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1872632891324282</v>
+        <v>0.1865363782578445</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.359518625566128</v>
+        <v>0.358620457613234</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2330714602453302</v>
+        <v>0.2331802794831004</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>30.66211140916473</v>
+        <v>30.53548994353618</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -25311,25 +26679,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04900459945201874</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1802820861339569</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4250156581401825</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.221369825071121</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>28.86121571063995</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.03947554901242256</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1552308350801468</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3744630515575409</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1986845464861889</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>25.27981698513031</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -25337,25 +26741,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02908024005591869</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1514818072319031</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2343924641609192</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.170529293835161</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>21.68613076210022</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03519392386078835</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1554836630821228</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2533145248889923</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1876004367286717</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>22.13965803384781</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -25592,19 +27032,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.379230873110035e-06</v>
+        <v>8.379230873112819e-06</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.002320970380453765</v>
+        <v>0.002320970380454996</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.003599506169034639</v>
+        <v>0.003599506169037011</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.002894690116939987</v>
+        <v>0.002894690116940468</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3596386706245268</v>
+        <v>0.359638670624763</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25622,19 +27062,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>8.032581434324734e-06</v>
+        <v>8.032581434309452e-06</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.002254359147235128</v>
+        <v>0.002254359147233755</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.003434899768707434</v>
+        <v>0.003434899768707666</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.002834180910655622</v>
+        <v>0.002834180910652927</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.3433377075261833</v>
+        <v>0.3433377075262021</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -25742,7 +27182,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.0455409829722173</v>
+        <v>0.04554098297221729</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.156128107390242</v>
@@ -25754,7 +27194,7 @@
         <v>0.2134033340231996</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>24.4313071679191</v>
+        <v>24.43130716791909</v>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
@@ -26222,19 +27662,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04688484791123351</v>
+        <v>0.04704645368586823</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1767805901528099</v>
+        <v>0.1772215491326691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2727601718378589</v>
+        <v>0.2734817744059739</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2165290925285411</v>
+        <v>0.2169019448641902</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.43939722643591</v>
+        <v>27.52180559421168</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -26252,19 +27692,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05131742297794395</v>
+        <v>0.05157682296561392</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1909984735839035</v>
+        <v>0.191343490225493</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2942582261246776</v>
+        <v>0.2944444843915118</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2265334919563638</v>
+        <v>0.2271053124997606</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>29.96432116210335</v>
+        <v>30.01857576871294</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -26443,25 +27883,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02990392409265041</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1413283944129944</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2518518269062042</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1729275110925107</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>21.62983864545822</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.03198400139808655</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1426226943731308</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2533494234085083</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1788407151576132</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>21.77412062883377</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -26469,25 +27945,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02466128394007683</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1329519897699356</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.209674209356308</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1570391159554741</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.8138946890831</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01662682928144932</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1079083383083344</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.171098455786705</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1289450630363541</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>15.43371975421906</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">

--- a/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
@@ -832,19 +832,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0118774279056906</v>
+        <v>0.01187742790569068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09598337856658982</v>
+        <v>0.09598337856659063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1400950586745346</v>
+        <v>0.1400950586745359</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.108983613014483</v>
+        <v>0.1089836130144834</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>14.40690564201989</v>
+        <v>14.40690564202001</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -862,19 +862,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.01232947150755132</v>
+        <v>0.01232947150755122</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.08503244097470182</v>
+        <v>0.08503244097469952</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1074564475605097</v>
+        <v>0.1074564475605063</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1110381533868036</v>
+        <v>0.1110381533868031</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>11.395455096721</v>
+        <v>11.39545509672087</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -883,25 +883,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.23936576403386</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>19.23936576403386</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -971,25 +1007,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02039849665340829</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.09892334110560715</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1195522199899379</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1428233057081662</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>13.41440215628477</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02103539249734765</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1002129988941046</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1211025757763387</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1450358317704547</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>13.63498354970206</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -1513,25 +1585,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.006108924945489766</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.05879255415939588</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.0765633552761376</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.07815961198400211</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>7.914757535713949</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.009996811831397804</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.07870826852180735</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.106591157577303</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.09998405788623406</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>11.28241747455756</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -2072,7 +2180,7 @@
         <v>0.1806876129161776</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2958737609721216</v>
+        <v>0.2958737609721217</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>0.1409509595288649</v>
@@ -2090,25 +2198,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.84296891915625</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.84296891915625</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2178,25 +2322,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1053674990088677</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2763454640608003</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1081278951788363</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3246036028895362</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.30581715903516</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1575446651597618</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3171626708561844</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.122983566129193</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3969189654825803</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>13.47934993969151</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -2483,19 +2663,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8018345257612137</v>
+        <v>0.8019462711120213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7744829766342641</v>
+        <v>0.7745490895520215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2837583648722722</v>
+        <v>0.2837725562981203</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8954521348241981</v>
+        <v>0.8955145286995747</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>34.63901308906982</v>
+        <v>34.64189837190034</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -2513,19 +2693,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.567052687707756</v>
+        <v>1.567255748952615</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.9803820553391168</v>
+        <v>0.9804369520905921</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3631360326684132</v>
+        <v>0.3631984033066534</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.251819750486369</v>
+        <v>1.251900854282245</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>50.87191973895969</v>
+        <v>50.87534769266146</v>
       </c>
     </row>
     <row r="17">
@@ -2720,25 +2900,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.779475502959986</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.206774343786212</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4572226983213115</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.333969828354444</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>61.50023065126092</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>1.252064179591497</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1.015813022128057</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3770819609627146</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.118956737140224</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>49.10275176054338</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3246,16 +3462,16 @@
         <v>0.0946301528497836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2416442330001006</v>
+        <v>0.2416442330001004</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09298371867809588</v>
+        <v>0.09298371867809581</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.3076201437646495</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>9.129070452820619</v>
+        <v>9.12907045282061</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -3276,16 +3492,16 @@
         <v>0.0946269998252306</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2416509496925391</v>
+        <v>0.2416509496925392</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.09298460594651124</v>
+        <v>0.09298460594651126</v>
       </c>
       <c r="O8" s="8" t="n">
         <v>0.3076150188551115</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>9.129331595429091</v>
+        <v>9.129331595429093</v>
       </c>
     </row>
     <row r="9" ht="183" customHeight="1">
@@ -3294,25 +3510,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.937532340375366</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>8.937532340375366</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -3382,25 +3634,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2353986754830824</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3534838257595098</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.126689504499235</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4851790138527041</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>13.67206164907211</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.08991836108201721</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.2297913126251985</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.08962915394144881</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2998639042666143</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>8.435022107593195</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -3687,19 +3975,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7560643165624685</v>
+        <v>0.7559350099843498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7383743879905694</v>
+        <v>0.7381656993889166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2691889724759883</v>
+        <v>0.2691101468143303</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8695195895219776</v>
+        <v>0.8694452311585531</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>33.41776680216817</v>
+        <v>33.40890686371394</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -3717,19 +4005,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.9504327335461279</v>
+        <v>0.9539330915355441</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.8140257486153317</v>
+        <v>0.8167366384182198</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.2915852574048778</v>
+        <v>0.2926176197766456</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.9749013968325863</v>
+        <v>0.9766949838795856</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>37.03380494847158</v>
+        <v>37.16535504302686</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -3924,25 +4212,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5748916415707144</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.659143529521517</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2341426654226918</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7582160916062877</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.50742125366909</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.3790356495744907</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.5854806213580922</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2151503325215229</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.6156587119293372</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>24.46126623207016</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -4498,25 +4822,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.006314959143742</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.006314959143742</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -4586,25 +4946,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.125026859030909</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3273784930520338</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.116129634696885</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.353591372958828</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.42612936094664</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.08669856782117302</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.2090522350949121</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.0714726416709011</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2944462053095149</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>7.597573434886486</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -4891,19 +5287,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.083782027138506</v>
+        <v>1.089167806610811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.012594013315699</v>
+        <v>1.015661953111594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3637906189193584</v>
+        <v>0.3648282056132884</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.041048522951023</v>
+        <v>1.043632026439785</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>45.09554056090848</v>
+        <v>45.23885876172697</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -4921,19 +5317,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.706114816138752</v>
+        <v>1.705626184250224</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.101590274000686</v>
+        <v>1.101179247422147</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3843828111920465</v>
+        <v>0.3842297404983191</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.306183301125363</v>
+        <v>1.305996242050575</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>52.97723935481309</v>
+        <v>52.95782284132596</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -5128,25 +5524,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.00161312870788</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.9252687323697895</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3283375100620313</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.000806239343001</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>40.68944019386849</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.2113422219745201</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3932383530119564</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1371669565474061</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4597197211068066</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>15.07959312140815</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -5649,7 +6081,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0547742354908155</v>
+        <v>0.05477423549081547</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.1594766608104578</v>
@@ -5658,7 +6090,7 @@
         <v>1.251019679976925</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2340389614803815</v>
+        <v>0.2340389614803814</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>31.35249393292127</v>
@@ -5682,7 +6114,7 @@
         <v>0.05467688356383012</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1591843833440268</v>
+        <v>0.1591843833440269</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>1.249499969881508</v>
@@ -5691,7 +6123,7 @@
         <v>0.2338308866763117</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>31.30246433137656</v>
+        <v>31.30246433137657</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -5700,25 +6132,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04307249302249967</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1444902053073924</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.082152562525829</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2075391361225628</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>29.66469904354527</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04352786532704928</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1463508534520188</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.08428839826708</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2086333274600424</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>29.90616199342748</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -5788,25 +6256,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04741835784079175</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1352866352894194</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.154206175038124</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.217757566667135</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.58731953431267</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4012424358802271</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5847307139582304</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9558429723829484</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.633437002297961</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>184.9437366011025</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -6093,19 +6597,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04689120307295666</v>
+        <v>0.04689737658911813</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1471298273058286</v>
+        <v>0.1471012525872898</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.132625441260701</v>
+        <v>1.132610478081664</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2165437671071524</v>
+        <v>0.2165580212994156</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>29.93676799023721</v>
+        <v>29.93440238243734</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -6123,19 +6627,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0465854295549419</v>
+        <v>0.04658894378935458</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1465179036180468</v>
+        <v>0.146574676540156</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>1.130642151942481</v>
+        <v>1.130222232043834</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2158365806691301</v>
+        <v>0.2158447214767009</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>29.79885659492877</v>
+        <v>29.81290274443849</v>
       </c>
     </row>
     <row r="17">
@@ -6330,25 +6834,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05287251365761335</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1667813125310141</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.177581275459227</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2299402393179875</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.80922422454865</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05434840432822551</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1715709585373859</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.184007302389395</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2331274422461361</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>33.50564914266134</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -6851,19 +7391,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04453262674722982</v>
+        <v>0.0445122872534989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1276250324995638</v>
+        <v>0.127612738107931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.191412063580522</v>
+        <v>1.191212102584163</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2110275497351704</v>
+        <v>0.2109793526710586</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.5146457815895</v>
+        <v>26.51211851459923</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -6881,19 +7421,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.0314144961825101</v>
+        <v>0.03141449618251014</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.09928852484783586</v>
+        <v>0.09928852484783603</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>1.063213853815108</v>
+        <v>1.063213853815109</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1772413500922121</v>
+        <v>0.1772413500922122</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>22.21155687522435</v>
+        <v>22.21155687522437</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6902,25 +7442,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06569417642671847</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1680621509996278</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.154158092019591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2563087521461537</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>31.90699401870898</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06569417642671847</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1680621509996278</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.154158092019591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2563087521461537</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>31.90699401870898</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -6990,25 +7566,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.09787084713849513</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.285731924374936</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9967621059226124</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3128431669998485</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>73.57643123636154</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4143339080495433</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5959969275206045</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6436877411055327</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -7532,25 +8144,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05324298057259107</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1635990026482941</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.229417054348433</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2307444052899031</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.10060458502534</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05344056257742446</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1644578429804456</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.228929426516965</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2311721492252569</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>32.21885088584574</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8065,7 +8713,7 @@
         <v>0.2098659534694499</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>31.38751931069724</v>
+        <v>31.38751931069725</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -8083,19 +8731,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.02214848839073613</v>
+        <v>0.02214848839073564</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1112518485039845</v>
+        <v>0.1112518485039824</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.7569720835234229</v>
+        <v>0.7569720835234302</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1488236822240873</v>
+        <v>0.1488236822240857</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>22.47206830602613</v>
+        <v>22.47206830602556</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8104,25 +8752,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06268957211963207</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.197865821552497</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.23105693816201</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2503788571737479</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>36.74265040738904</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06951336729224504</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1520267053192309</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.461101598951884</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2636538778251612</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>27.07231007553565</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -8192,25 +8876,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03329953359723595</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1286017618987385</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.025082102359171</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1824815979687704</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>31.1471193453633</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>18.12392991126508</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>3.841592286904493</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>9.009403823142959</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>4.25722091407823</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>178.0194298430422</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -8734,25 +9454,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03826359215234085</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1320326895851291</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.14035468890592</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1956108180861704</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>26.98843441379989</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04611925105949886</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1456402799480725</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.210563177626777</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2147539314180275</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>28.81575243809193</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -9255,19 +10011,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5352035465705647</v>
+        <v>0.5352035465705641</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3553232680698302</v>
+        <v>0.3553232680698297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5855288077435605</v>
+        <v>0.5855288077435601</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7315760702555577</v>
+        <v>0.7315760702555573</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.59665888520318</v>
+        <v>17.59665888520316</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -9285,7 +10041,7 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.5351141646751837</v>
+        <v>0.5351141646751836</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.3553334411294645</v>
@@ -9306,25 +10062,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.51790038361044</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3600031965124973</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6062176208571961</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7196529605375358</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>17.78396731996065</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.51790038361044</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3600031965124973</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6062176208571961</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7196529605375358</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>17.78396731996065</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -9394,25 +10186,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5161902595608893</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3356055222245092</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.5711621920908626</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7184638192427572</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>16.88524054644678</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>5.801906464918591</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>1.706085387814601</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9176697967949319</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.40871469147315</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>73.05554558748638</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -9699,19 +10527,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5040130048948587</v>
+        <v>0.5040804740835961</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.333772300407343</v>
+        <v>0.3337174482860194</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5753572378025115</v>
+        <v>0.575282396116655</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.7099387331980547</v>
+        <v>0.7099862492214875</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>16.87084795882637</v>
+        <v>16.86928348273626</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -9729,19 +10557,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.5047180410732184</v>
+        <v>0.5047974711080923</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.3365555761715142</v>
+        <v>0.3365592659955656</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.5763568198667669</v>
+        <v>0.5763044322374625</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.7104351068698804</v>
+        <v>0.7104910070564526</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>16.97656550687601</v>
+        <v>16.97719613591542</v>
       </c>
     </row>
     <row r="17">
@@ -9936,25 +10764,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5162000009778891</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3609820102241452</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5866160887003137</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7184705985479776</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.87942585951762</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5180646475357268</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3614994365905366</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.5871706308915817</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7197670786690141</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>17.89378061222999</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -10457,19 +11321,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5298763940473603</v>
+        <v>0.5298994919689347</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3188310312384579</v>
+        <v>0.3188501214063068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5995517930953312</v>
+        <v>0.5995842340061315</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7279260910610089</v>
+        <v>0.7279419564559627</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.21079734593584</v>
+        <v>16.21148991604236</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -10508,25 +11372,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.575800990090811</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4380556937993376</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6300519555865471</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7588155178242014</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20.69951706871148</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.575800990090811</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.4380556937993376</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6300519555865471</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7588155178242014</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>20.69951706871148</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -10596,25 +11496,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.556857453944392</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.659541552276866</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.146113244472546</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.748973891099076</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>186.2498426910126</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>5065.068324856207</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>67.41865081550468</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>40.73017380558338</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>71.16929341265239</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>186.1108411977874</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -10901,19 +11837,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5090270926677802</v>
+        <v>0.5080363387479175</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3249248522267446</v>
+        <v>0.3254313997729539</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5979775153860369</v>
+        <v>0.5967155346210292</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.7134613463025031</v>
+        <v>0.7127666790387424</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>16.40100041995765</v>
+        <v>16.42752851228648</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -11138,25 +12074,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5273055405137896</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3568153462849063</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6015234723200559</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7261580685455403</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.66336918505008</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5176306507294928</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3347933468909629</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.5979435956905838</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7194655313004875</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>16.8154852926403</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -11665,7 +12637,7 @@
         <v>0.4050688120255771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3344455658041631</v>
+        <v>0.3344455658041632</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.7380330541245007</v>
@@ -11689,19 +12661,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.5147920335434322</v>
+        <v>0.5147920335434319</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.3439858020992099</v>
+        <v>0.3439858020992098</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.3108293785000603</v>
+        <v>0.3108293785000602</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.7174900929932289</v>
+        <v>0.7174900929932286</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>16.54017745794944</v>
+        <v>16.54017745794943</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -11710,25 +12682,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5393884823395788</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4246968508340793</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3378965207350837</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7344307199045931</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.61130821732982</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.3784763815716566</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2670954882836717</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2317650082328771</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.615204341314052</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>12.74714883240975</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -11798,25 +12806,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3336107085711337</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.286800652619086</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2460799938659355</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5775904332406603</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>14.66597167352406</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.339428869643622</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3118467115190799</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2550638004159287</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5826052434055344</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>15.78984330522735</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -12103,19 +13147,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3167792246977366</v>
+        <v>0.3168312250203642</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2405052532196466</v>
+        <v>0.2414134092564328</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2234872142105374</v>
+        <v>0.2237947083664531</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.5628314354207098</v>
+        <v>0.5628776288149709</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>12.51810452250007</v>
+        <v>12.54845404932077</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -12340,25 +13384,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3391559652519102</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2748392783545557</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2435244470309753</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5823709859289954</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>13.96380784249427</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.3153813448733095</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2480540412522646</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.222542073891029</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.5615882342725046</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>12.46129270795526</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -12843,19 +13923,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02290870951970956</v>
+        <v>0.02293151874370329</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1135118827209251</v>
+        <v>0.1135426249891586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1472857307205221</v>
+        <v>0.1473133346462308</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1513562338316779</v>
+        <v>0.1514315645554232</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>15.99303509559659</v>
+        <v>15.99790137473437</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -12876,13 +13956,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03697890191916081</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1566026040415228</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2334777849854888</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1922989909468087</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>24.05379813579672</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -12946,13 +14044,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02352529579017805</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1097468883567103</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1380519662400542</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1533795807471713</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.5029420182506</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -13197,19 +14313,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02829482723389062</v>
+        <v>0.02838273899058572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1212489046037808</v>
+        <v>0.1218138676840771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1590309862472014</v>
+        <v>0.1601352237827822</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1682106632585777</v>
+        <v>0.1684717750561966</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>18.19668174777575</v>
+        <v>18.32488752779823</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -13362,13 +14478,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.01871225794844261</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.100321334934185</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1287871675965921</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1367927554676877</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>14.04591646576618</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -13829,19 +14963,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02328713301541241</v>
+        <v>0.02328713301541243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1099841732769441</v>
+        <v>0.1099841732769442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2470747814511712</v>
+        <v>0.2470747814511713</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1526012221950152</v>
+        <v>0.1526012221950153</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>18.38325864709407</v>
+        <v>18.38325864709408</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -13865,13 +14999,13 @@
         <v>0.1094415789988626</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.2465191038299382</v>
+        <v>0.2465191038299381</v>
       </c>
       <c r="O8" s="8" t="n">
         <v>0.1522081884846096</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>18.30700081296124</v>
+        <v>18.30700081296123</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -13880,25 +15014,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.01122762496118662</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.07703282889395506</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.1405903598851261</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1059604877356962</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>17.07731850230998</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03725572180632283</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1248212034935653</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2102995828355222</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.193017413220473</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.17714380224943</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -13968,25 +15138,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02318345649878691</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.109740725494039</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2265983641626896</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1522611457292599</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.20133038969487</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02316624266531719</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1093959639013495</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2258935476681892</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1522046078977808</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>18.14044167968315</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -14273,19 +15479,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.009870761056672067</v>
+        <v>0.00991195406792157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.06774949173910587</v>
+        <v>0.06797722036566779</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1142051025999118</v>
+        <v>0.1145475905844185</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.09935170384382981</v>
+        <v>0.09955879703934539</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>12.92136239675702</v>
+        <v>12.93525949278795</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -14299,23 +15505,23 @@
       </c>
       <c r="K16" s="16" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.01031611538739072</v>
+        <v>0.00974398958210386</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.07021531721263222</v>
+        <v>0.0684226498972685</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.1171610358841932</v>
+        <v>0.1153350479084319</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.101568279435022</v>
+        <v>0.0987116486647035</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>13.23405794161804</v>
+        <v>12.9498627078817</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -14510,25 +15716,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.009269543109519732</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.07724043659445194</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1496902322892767</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.09627846648924011</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>13.82830801110256</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.009269543109519732</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.07724043659445194</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1496902322892767</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.09627846648924011</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>13.82830801110256</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -15013,19 +16255,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02273415258793839</v>
+        <v>0.02275370826428656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1189502297862025</v>
+        <v>0.1190088208362949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1894526749870337</v>
+        <v>0.1895232047226162</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1507784884787561</v>
+        <v>0.1508433235655014</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>18.1205013477457</v>
+        <v>18.12918048756784</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -15046,13 +16288,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.32505932938447</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -15116,13 +16376,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02543133730727951</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1191687506451945</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1838722583196605</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1594720580768917</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.13376656131699</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -15363,23 +16641,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02328567596902502</v>
+        <v>0.01797181774256249</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1182856106200994</v>
+        <v>0.1068974418329901</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1759200068823668</v>
+        <v>0.1629000397236367</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1525964480878405</v>
+        <v>0.1340590084349519</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>18.43991809109129</v>
+        <v>16.50861890548845</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -15532,13 +16810,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03163049156720417</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1351542818139645</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2047960430386004</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.177849631900671</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.63558886246198</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -15981,19 +17277,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01521801818927825</v>
+        <v>0.01521801818927819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09627403218788894</v>
+        <v>0.09627403218788871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2211199149108568</v>
+        <v>0.2211199149108565</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1233613318235428</v>
+        <v>0.1233613318235426</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.7653988141489</v>
+        <v>16.76539881414885</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -16014,13 +17310,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.007827605539981372</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.07292523914907147</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1275872866751978</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.08847375622172585</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>12.82085504884582</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -16084,13 +17398,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06287498351819724</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.201535128198317</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3986652944442604</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.250748845497237</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>36.91847103390716</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -16331,23 +17663,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.004816453829006289</v>
+        <v>0.005087259801812015</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.05669525417679633</v>
+        <v>0.05891732172410231</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09299413738961815</v>
+        <v>0.103578590164175</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.06940067599819391</v>
+        <v>0.07132502928013429</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.116482591502981</v>
+        <v>9.859725978171575</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -16500,13 +17832,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.009298217219503645</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.07419406853995249</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1416876704883916</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.09642726388062478</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>12.78602596573571</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16949,19 +18299,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0416253049034098</v>
+        <v>0.04162530490345675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1618187529076371</v>
+        <v>0.1618187529076383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05691093837629001</v>
+        <v>0.05691093837628985</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2040228048611473</v>
+        <v>0.2040228048612624</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.838584357395395</v>
+        <v>5.838584357395471</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -16982,13 +18332,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.006314959143742</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -17052,13 +18420,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1355113892430811</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3104251339349532</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.107143289906581</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3681187162357832</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.55354415371811</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17468,13 +18854,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0724068491524595</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1952159359134993</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.06756236235715124</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2690852079778067</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>7.203087685677446</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -17917,19 +19321,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05576112596821009</v>
+        <v>0.05576112596820978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1575115281142756</v>
+        <v>0.1575115281142758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06206890094720351</v>
+        <v>0.0620689009472036</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2361379384347422</v>
+        <v>0.2361379384347415</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.990050886503811</v>
+        <v>5.990050886503817</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -17950,13 +19354,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.937532340375366</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18020,13 +19442,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1589051373672562</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3346033968580309</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1212971000070311</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3986290724059852</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.78444939360164</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -18271,19 +19711,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1555109690987143</v>
+        <v>0.155591895498292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2898372028153696</v>
+        <v>0.2901460450435892</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1047993205538857</v>
+        <v>0.1048997765340976</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.3943487911718689</v>
+        <v>0.3944513854688458</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>11.40133143471396</v>
+        <v>11.41181921579296</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -18436,13 +19876,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06979989354984259</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.203107038344959</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.07525896012293186</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2641966948124874</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>7.685645420712647</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -18885,19 +20343,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1170091063473579</v>
+        <v>0.1170091063473623</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2039766928692603</v>
+        <v>0.2039766928692611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1038990949411731</v>
+        <v>0.1038990949411737</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3420659385957011</v>
+        <v>0.3420659385957074</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.638498813892745</v>
+        <v>8.638498813892774</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -18918,13 +20376,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.84296891915625</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18988,13 +20464,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2154030883485114</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3706467586563784</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1602710829538135</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4641153825812191</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>14.97283057020652</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -19239,19 +20733,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2649384617295221</v>
+        <v>0.2645921118417636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4383383410525194</v>
+        <v>0.4380946267157765</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1732110300683665</v>
+        <v>0.1731489017143058</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.5147217323268196</v>
+        <v>0.5143851784818101</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>18.16164248034267</v>
+        <v>18.15015398916917</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -19404,13 +20898,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5524755820151911</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.6264042990339881</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2374269007411977</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.743287011870375</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.08064636628446</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -19871,19 +21383,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01910550951071137</v>
+        <v>0.01910550951072004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1133544602845851</v>
+        <v>0.1133544602846079</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1845054684947982</v>
+        <v>0.1845054684948568</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1382226808838237</v>
+        <v>0.1382226808838551</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>19.78368494096166</v>
+        <v>19.78368494097134</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -19901,19 +21413,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.0141994313739166</v>
+        <v>0.01419943137391761</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.08991650895914746</v>
+        <v>0.08991650895915382</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1384640442890094</v>
+        <v>0.138464044289021</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1191613669521989</v>
+        <v>0.1191613669522031</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>13.41918226041727</v>
+        <v>13.41918226041819</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -19922,25 +21434,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.32505932938447</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.02118740825880001</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1117496478683705</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1671922272895023</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1455589511462624</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>18.38859196311508</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -20010,25 +21558,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02283838059752753</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1089788945029543</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1573724934996189</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1511237261237544</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>16.15340115482225</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02282940538325865</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1084545720998825</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1554430207176177</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1510940282845707</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.03420264360188</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -20315,19 +21899,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.01217098069988547</v>
+        <v>0.01221813813523393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.07450596828567188</v>
+        <v>0.07450317084988783</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1225247848434771</v>
+        <v>0.1224414526155937</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1103221677628094</v>
+        <v>0.1105356871568361</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>14.52003173577885</v>
+        <v>14.51733500497293</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -20345,19 +21929,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.01493490090422932</v>
+        <v>0.01461557149256019</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.08521635890619551</v>
+        <v>0.08508858919569444</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.1317787260765517</v>
+        <v>0.129536206398262</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1222084322141043</v>
+        <v>0.120894877859073</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>15.41460641559393</v>
+        <v>14.93347518045571</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -20552,25 +22136,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.01514492015141078</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.09348226622515506</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1314507667170479</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.123064699046521</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>13.93389390104851</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.01527782513270732</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.09471595895256735</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1379294370391539</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1236034996782345</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>14.64121013683364</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -21073,19 +22693,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01716548993195591</v>
+        <v>0.01716548993196167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.101773338373842</v>
+        <v>0.1017733383738588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03512681766189762</v>
+        <v>0.0351268176619032</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1310171360240938</v>
+        <v>0.1310171360241159</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.598231653041172</v>
+        <v>3.598231653041756</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -21103,19 +22723,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.02063907789169783</v>
+        <v>0.02063907789169765</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.1090880183598158</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.03742715058533833</v>
+        <v>0.03742715058533835</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1436630707304345</v>
+        <v>0.1436630707304339</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>3.853246411879605</v>
+        <v>3.853246411879608</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -21124,25 +22744,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.006314959143742</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.006314959143742</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -21212,25 +22868,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1348703013849903</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3091253537734192</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1066406431851945</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3672469215459678</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.49944899748786</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1350465330223162</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3093040188516005</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1066999117259717</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3674867793843966</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>11.50661068947318</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -21547,19 +23239,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.03175569401924839</v>
+        <v>0.03175439656327156</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.1489741093707556</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.05506749308515704</v>
+        <v>0.05506751569135034</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1782012738990617</v>
+        <v>0.1781976334390318</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>5.714130301892428</v>
+        <v>5.714456675752081</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -21754,25 +23446,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04128196547990724</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1495885121098528</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.05306904839468349</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2031796384481162</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>5.536688980355999</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03948654394054946</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1676164590731608</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.06122549266755041</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1987122138685729</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>6.384577027689383</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -22276,19 +24004,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1103892215103502</v>
+        <v>0.1103892215103507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1988773784479804</v>
+        <v>0.1988773784479806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1007917011592638</v>
+        <v>0.1007917011592636</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3322487343999225</v>
+        <v>0.3322487343999232</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.395281348331395</v>
+        <v>8.395281348331398</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -22306,19 +24034,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.1095586725190624</v>
+        <v>0.1095586725190594</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1979113258342261</v>
+        <v>0.1979113258342297</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1001811582034838</v>
+        <v>0.1001811582034844</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.3309964841490955</v>
+        <v>0.3309964841490909</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>8.357653535477763</v>
+        <v>8.357653535477903</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -22327,25 +24055,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.84296891915625</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.84296891915625</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -22415,25 +24179,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2159668868640098</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3706105882618447</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1601011132206822</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.464722376117193</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>14.97105534785007</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2158887447936731</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3705918107490951</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1600710913291719</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4646382945837258</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>14.97049481597648</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -22746,23 +24546,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.03008192007684284</v>
+        <v>0.03893505307143997</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1260936684928523</v>
+        <v>0.1392616009154493</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.05207218670406004</v>
+        <v>0.0564936295339119</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1734414024298779</v>
+        <v>0.1973196722869769</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>5.168437284925871</v>
+        <v>5.680723526135869</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -22957,25 +24757,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0925378711612473</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2035221331016652</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.09488824564691559</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.3042003799492159</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>8.551763135141639</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.08598222866668009</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2194526411764076</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.08867745930545733</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2932272645350021</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>8.942118317120592</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -23479,19 +25315,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04236172024635988</v>
+        <v>0.04236151790639475</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1487963745955645</v>
+        <v>0.1487817250681382</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05749431330343697</v>
+        <v>0.05748868106424717</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2058196303717405</v>
+        <v>0.2058191388243444</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.630597709376596</v>
+        <v>5.630040987329391</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -23509,19 +25345,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.04235982415238614</v>
+        <v>0.04235982415238131</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1499264800104652</v>
+        <v>0.1499264800104581</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.05784015114971863</v>
+        <v>0.05784015114971618</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2058150241172547</v>
+        <v>0.205815024117243</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>5.671524788906207</v>
+        <v>5.671524788905939</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -23530,25 +25366,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.937532340375366</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>8.937532340375366</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -23618,25 +25490,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.152411342515789</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3288229237896212</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1196478930730264</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3903989530157438</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.54005853485303</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1523987659514019</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3287872433612654</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1196320854141947</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3903828453600413</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>12.53861148201535</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -23923,19 +25831,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02862916567007206</v>
+        <v>0.02872277064481508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1246722562125642</v>
+        <v>0.1248396433121569</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04635880082724111</v>
+        <v>0.0464201214832791</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1692015533914274</v>
+        <v>0.1694779355692507</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.798055103229824</v>
+        <v>4.804867058674233</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -24160,25 +26068,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03680057544517754</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1496151496879791</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.05603856082328411</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1918347607843207</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>5.67119634408681</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03539419643092066</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1448859041476995</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.05497466925521746</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1881334537792805</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>5.482934162166792</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -24735,25 +26679,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.23936576403386</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>19.23936576403386</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -24823,25 +26803,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03306811759656291</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1405085227769504</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1808432542962874</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1818464121080284</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.15844328250092</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03306595749701981</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1405027396682731</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1808323682277296</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.181840472659471</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>20.15749608905713</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -25128,19 +27144,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.08907308614717595</v>
+        <v>0.08938133725280614</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2409499742444263</v>
+        <v>0.2414422637096568</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3119913712567829</v>
+        <v>0.3124965259326431</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.298451145327298</v>
+        <v>0.2989671173437075</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>39.70363741775403</v>
+        <v>39.78740900065971</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -25365,25 +27381,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07172277983872234</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1990420673130869</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2534132916401117</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2678110898352089</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.85042533933137</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.06247127182878053</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1946105551797913</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2498622181610467</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2499425370535806</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>30.37721605829951</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -25941,25 +27993,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0466440454529416</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1721431343595131</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3804385996473661</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2159723256645203</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.92300018704432</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.0466440454529416</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1721431343595131</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3804385996473661</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2159723256645203</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>27.92300018704432</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -26029,25 +28117,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04945443470418908</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1762570462213097</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3675329711099494</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2223835306496169</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>28.66420003190955</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04945666259715727</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1762713795681788</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3675371497950072</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2223885397163201</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>28.66661777314427</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -26334,19 +28458,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05069978180361639</v>
+        <v>0.0510419135722995</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1822804100278474</v>
+        <v>0.1831264615560694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3608620422608982</v>
+        <v>0.3629247712275834</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2251661204613527</v>
+        <v>0.2259245749631932</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>29.79277352278739</v>
+        <v>29.93312406632873</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -26364,19 +28488,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05261122650474534</v>
+        <v>0.05210455701812288</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1871830386888253</v>
+        <v>0.1856291204848561</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.359731379817506</v>
+        <v>0.3578352803148473</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2293713724612235</v>
+        <v>0.2282642263214341</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>30.67530976611044</v>
+        <v>30.41132079441148</v>
       </c>
     </row>
     <row r="17">
@@ -26571,25 +28695,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05016421035023868</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1779620624788568</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3714125642024546</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2239736822714639</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.9286835700689</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05016421035023868</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1779620624788568</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3714125642024546</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2239736822714639</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>28.9286835700689</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -27145,25 +29305,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.32505932938447</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>23.32505932938447</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -27233,25 +29429,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03853294201285304</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1568137925134822</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2434146469468482</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1962980947764217</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>24.04336595950461</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0385306773744275</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.156840536188095</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2434525177214937</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1962923263258844</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>24.04791896207513</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -27775,25 +30007,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03123995660583838</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1423828769449949</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2456902103357757</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1767482860053765</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>21.79476890594404</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03928414323802915</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1583265585977369</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2457944721322727</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1982022785893975</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>24.28600325196454</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">

--- a/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.006250795416043311</v>
+        <v>0.006227677175367666</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07025986806079805</v>
+        <v>0.07013242974191913</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.106439870699764</v>
+        <v>0.1062673906100404</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.0790619719969298</v>
+        <v>0.0789156332760985</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>10.91789387265925</v>
+        <v>10.90199362828113</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1192,19 +1192,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01620740750894835</v>
+        <v>0.01608510843851662</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1047736938853545</v>
+        <v>0.104348050773825</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1430930441725682</v>
+        <v>0.1424720266133005</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.127308316731266</v>
+        <v>0.1268270808562454</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>15.75662284486264</v>
+        <v>15.68331394110732</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01526271174898833</v>
+        <v>0.01489863495618776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08600574166624049</v>
+        <v>0.08572824752604997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1045103090644412</v>
+        <v>0.104670410818723</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1235423479985237</v>
+        <v>0.1220599645919486</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.33460716178833</v>
+        <v>11.30172288333299</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.01111154051459218</v>
+        <v>0.01108360571677216</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.08163686871224707</v>
+        <v>0.08157643177187199</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1031005895537357</v>
+        <v>0.1030539664908283</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1054112921588203</v>
+        <v>0.1052787049539087</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>10.88501837565049</v>
+        <v>10.87957181592384</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.371513415446104</v>
+        <v>0.3712623836817053</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5362182827542326</v>
+        <v>0.535995317601343</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1988790025790821</v>
+        <v>0.1988071971106411</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6095190033510883</v>
+        <v>0.6093130424352537</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.76476209949169</v>
+        <v>22.75601659450721</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2507,19 +2507,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5728263492319898</v>
+        <v>0.5726248538104205</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5670964671571006</v>
+        <v>0.5669907676172303</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2143779862204654</v>
+        <v>0.2143476801936829</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7568529244390814</v>
+        <v>0.7567197987435115</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.39230980136972</v>
+        <v>25.38794835383396</v>
       </c>
     </row>
     <row r="14">
@@ -2539,19 +2539,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.544618801400963</v>
+        <v>0.532100764337331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5949279039217776</v>
+        <v>0.5836875253965723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2510082996501606</v>
+        <v>0.2474587641747181</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.737982927580959</v>
+        <v>0.7294523729054084</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.3580932180492</v>
+        <v>23.84981237919986</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2569,19 +2569,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6382363032079333</v>
+        <v>0.655415993035116</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5969381494776161</v>
+        <v>0.607100075991142</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2594594130839852</v>
+        <v>0.263442810125734</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7988969290264755</v>
+        <v>0.809577663374624</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>20.42659753296899</v>
+        <v>20.71458375227469</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3789,19 +3789,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2990197498079055</v>
+        <v>0.298823830363826</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4460533034577731</v>
+        <v>0.4460320834017425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1623909948724187</v>
+        <v>0.1624299135759245</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5468269834306876</v>
+        <v>0.5466478119994865</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>18.53708261162667</v>
+        <v>18.54205120895979</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3020196056911121</v>
+        <v>0.3041030030980708</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.4608622339860267</v>
+        <v>0.4628616458927164</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1657654420349146</v>
+        <v>0.1664887444830136</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5495631043757505</v>
+        <v>0.5514553500493679</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.70489628545995</v>
+        <v>18.79166103126847</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3851,19 +3851,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5180625770982642</v>
+        <v>0.4892008629205747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5956484046553269</v>
+        <v>0.578562420910268</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2126771763418852</v>
+        <v>0.2070425534174271</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.719765640398501</v>
+        <v>0.6994289548771732</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.43244511703974</v>
+        <v>23.61344524462741</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3877,23 +3877,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.4582947344708947</v>
+        <v>0.5648057025291532</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5977793883217305</v>
+        <v>0.6492633419274551</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2224289667003394</v>
+        <v>0.2385777415289289</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6769746926369513</v>
+        <v>0.7515355630501814</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>23.57016297028008</v>
+        <v>26.03436171341903</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5101,19 +5101,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3603514204763282</v>
+        <v>0.365314922165244</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5715738611058528</v>
+        <v>0.5755327633367506</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2066821873946603</v>
+        <v>0.2079759754581106</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6002927789640053</v>
+        <v>0.6044128739241447</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.40207273112235</v>
+        <v>23.5627456397627</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5818705841498165</v>
+        <v>0.581745115316429</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6420651068193732</v>
+        <v>0.6419669725940144</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2237316661090344</v>
+        <v>0.2236978644068834</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7628044206412391</v>
+        <v>0.7627221743966993</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.48591179572226</v>
+        <v>26.48164464390633</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.070336948730257e-06</v>
+        <v>4.720763713019433e-05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002452022053288521</v>
+        <v>0.006717598049104405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0008811214931360741</v>
+        <v>0.002422981300482854</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002659010520612932</v>
+        <v>0.006870781406084342</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08815748470471486</v>
+        <v>0.241992129716374</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1384539562162457</v>
+        <v>0.183672142175393</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3180830834141363</v>
+        <v>0.3594548582677164</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1122457285593869</v>
+        <v>0.1254557968207901</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3720940152921647</v>
+        <v>0.4285698801542089</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>11.8187531597883</v>
+        <v>13.55931658331474</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6411,19 +6411,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04518683161739515</v>
+        <v>0.04518772938308239</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1350460417415444</v>
+        <v>0.1350706316729728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.122737148783786</v>
+        <v>1.122584378726192</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2125719445679395</v>
+        <v>0.212574056232369</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.92937930935078</v>
+        <v>27.93316521253714</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6441,19 +6441,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04503106358101588</v>
+        <v>0.04502630938714355</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1362187005228556</v>
+        <v>0.1361421276750732</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.119894545926488</v>
+        <v>1.119873821835027</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.212205239287384</v>
+        <v>0.2121940371149565</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>28.111241250598</v>
+        <v>28.10313027142064</v>
       </c>
     </row>
     <row r="14">
@@ -6473,19 +6473,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05891176531280262</v>
+        <v>0.05880856099331029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1510317638155314</v>
+        <v>0.1508807685114685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.334338343940918</v>
+        <v>1.333706768805495</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2427174598433385</v>
+        <v>0.2425047648878477</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.4239882302634</v>
+        <v>29.40554684619863</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04830457931604676</v>
+        <v>0.04822632896635664</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.140925571610407</v>
+        <v>0.1407135188733756</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.169805467377232</v>
+        <v>1.169236750605633</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2197830278161777</v>
+        <v>0.2196049383924611</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>28.63711390276686</v>
+        <v>28.59731776014995</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7721,19 +7721,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03698922220065323</v>
+        <v>0.03697803078280751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1149417105285029</v>
+        <v>0.1149609947764105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.090186146413351</v>
+        <v>1.090379880213352</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1923258230208654</v>
+        <v>0.1922967258764629</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.68223287875139</v>
+        <v>24.68918158688493</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7751,19 +7751,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03720717848147112</v>
+        <v>0.03726720225693014</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1159522083448997</v>
+        <v>0.116032276059718</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.091108746165248</v>
+        <v>1.093874294507128</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1928916236685023</v>
+        <v>0.1930471503465672</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.82555920068696</v>
+        <v>24.83413520025046</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7783,19 +7783,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06557473918177217</v>
+        <v>0.06615452949701239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1972159000116153</v>
+        <v>0.1976129727979353</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.322250244762076</v>
+        <v>1.324155050136686</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2560756512864356</v>
+        <v>0.2572052283625129</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.10705701895073</v>
+        <v>37.13365773700935</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7813,19 +7813,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07058694456521628</v>
+        <v>0.07148399845264874</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2053954394366722</v>
+        <v>0.2060604091058319</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.362645382788129</v>
+        <v>1.371524450869871</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2656820365873769</v>
+        <v>0.2673649162710933</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>38.12636909243617</v>
+        <v>38.17183469246847</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7845,19 +7845,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04244263011705442</v>
+        <v>0.04251208628999208</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1391287296001066</v>
+        <v>0.1393287820422499</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.181903104859068</v>
+        <v>1.182448937277118</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2060160918886057</v>
+        <v>0.2061845927560837</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.40700242075581</v>
+        <v>28.44174635548774</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>0.04234921811748574</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1385165037149909</v>
+        <v>0.1385165037149908</v>
       </c>
       <c r="N15" s="8" t="n">
         <v>1.176930211372201</v>
@@ -9031,7 +9031,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03456650123834976</v>
+        <v>0.03456650123834975</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.103294349452084</v>
@@ -9043,7 +9043,7 @@
         <v>0.1859206853428358</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.30432872805094</v>
+        <v>22.30432872805093</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9057,23 +9057,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03584720390271404</v>
+        <v>0.03519354950333243</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1039254047991894</v>
+        <v>0.09701042705985552</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.172568952122618</v>
+        <v>1.175093545987445</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1893335783814219</v>
+        <v>0.1875994389739277</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>22.2134762994612</v>
+        <v>20.90327206845607</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04637915615042788</v>
+        <v>0.04234172711372365</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1372625481309524</v>
+        <v>0.1288196149979995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.257724851701238</v>
+        <v>1.202058239706559</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2153582042793538</v>
+        <v>0.2057710550921185</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>27.87703029562459</v>
+        <v>26.62076092318772</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9123,19 +9123,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09417295299942885</v>
+        <v>0.09168976926685395</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.268858334381672</v>
+        <v>0.2644861980735655</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.381140589822852</v>
+        <v>1.375542819432341</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3068761199562925</v>
+        <v>0.3028031856946917</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>45.35265183886735</v>
+        <v>44.83537400990734</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10341,19 +10341,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5127219424852067</v>
+        <v>0.512300125163881</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3380235884808659</v>
+        <v>0.3380873598932171</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5776232049209907</v>
+        <v>0.5774723851576025</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7160460477407907</v>
+        <v>0.7157514409093991</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.01047807861921</v>
+        <v>17.01486445408287</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10371,19 +10371,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.513779308498676</v>
+        <v>0.5133574082627403</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3402548793655681</v>
+        <v>0.3403186507779192</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5785633673578529</v>
+        <v>0.5784125475944646</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7167840040756184</v>
+        <v>0.7164896428160985</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.09568581358342</v>
+        <v>17.10007339547975</v>
       </c>
     </row>
     <row r="14">
@@ -10403,19 +10403,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5429286036035843</v>
+        <v>0.5517076377949701</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3476611221066483</v>
+        <v>0.3596372409408285</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5825973100819485</v>
+        <v>0.5881549754922859</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7368368907727031</v>
+        <v>0.7427702456311576</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.3185180973643</v>
+        <v>17.76587239244833</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10433,19 +10433,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5331756200365412</v>
+        <v>0.5537345272717408</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3611346104219323</v>
+        <v>0.3832909180503301</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5845487709791979</v>
+        <v>0.5949683290521423</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7301887564435248</v>
+        <v>0.7441334069047973</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>17.9020692615968</v>
+        <v>18.70490542474536</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.5148254822795788</v>
+        <v>0.5148254822795786</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>0.3669591049170592</v>
@@ -10504,7 +10504,7 @@
         <v>0.5698671012546762</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7175134021602515</v>
+        <v>0.7175134021602514</v>
       </c>
       <c r="P15" s="8" t="n">
         <v>18.14541939060312</v>
@@ -11651,19 +11651,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4506771208727198</v>
+        <v>0.4501396261498773</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2893099570154227</v>
+        <v>0.2890083119887313</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5600062099989078</v>
+        <v>0.5592838810304112</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6713248996370683</v>
+        <v>0.6709244563658991</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.17669206786094</v>
+        <v>15.16190601998442</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11713,19 +11713,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5311200260284977</v>
+        <v>0.529602467528693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3468121077381667</v>
+        <v>0.3450070288864111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.605415185744707</v>
+        <v>0.6044277395204345</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7287798199926352</v>
+        <v>0.7277379112899732</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.18532905267423</v>
+        <v>17.11465762646768</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.4350424604544522</v>
+        <v>0.4377352690557804</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2901669515344497</v>
+        <v>0.2873694313928031</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5497436211578216</v>
+        <v>0.5512952057807969</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6595774863156354</v>
+        <v>0.6616156505523281</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>15.27943626788175</v>
+        <v>15.17259121157782</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11778,7 +11778,7 @@
         <v>0.4454202453683997</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3190332621292166</v>
+        <v>0.3190332621292165</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0.5524275938106595</v>
@@ -11805,13 +11805,13 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.4761610323984265</v>
+        <v>0.4761610323984266</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3055190232266159</v>
+        <v>0.305519023226616</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.5688254082288446</v>
+        <v>0.5688254082288448</v>
       </c>
       <c r="O15" s="8" t="n">
         <v>0.690044224958391</v>
@@ -12967,10 +12967,10 @@
         <v>0.2181328546813191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2103242969981157</v>
+        <v>0.2103242969981158</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5469134363091296</v>
+        <v>0.5469134363091295</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>11.50198758009906</v>
@@ -12991,16 +12991,16 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3038478538090967</v>
+        <v>0.3038478538090966</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2090825737178071</v>
+        <v>0.209082573717807</v>
       </c>
       <c r="N13" s="8" t="n">
         <v>0.2087196851960877</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5512239597560112</v>
+        <v>0.5512239597560111</v>
       </c>
       <c r="P13" s="8" t="n">
         <v>11.08170045860897</v>
@@ -13019,23 +13019,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6099292677995579</v>
+        <v>0.5843619854227883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4820966822817886</v>
+        <v>0.4809989977797297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3605069407801745</v>
+        <v>0.3573975513579988</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7809796846266603</v>
+        <v>0.7644357300798991</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>22.03628889806196</v>
+        <v>21.93775293683774</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13053,19 +13053,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.4603112118326711</v>
+        <v>0.4601658435280719</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3408759668921847</v>
+        <v>0.3407287654444687</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2941589076029255</v>
+        <v>0.2940911622821892</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6784623879277841</v>
+        <v>0.6783552487657717</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>16.78959995693264</v>
+        <v>16.78450173643841</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -14181,19 +14181,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02933796648497349</v>
+        <v>0.02918288076536792</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1324698440394766</v>
+        <v>0.1319724205745226</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1839027872626937</v>
+        <v>0.1830856499584939</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1712832930702043</v>
+        <v>0.1708299761908545</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.77677726226053</v>
+        <v>19.69849433257551</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14225,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01240848845827435</v>
+        <v>0.01256920090042126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08079661360471166</v>
+        <v>0.081846952895773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.102204992250992</v>
+        <v>0.1035718645634325</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1113933950388189</v>
+        <v>0.1121124475712722</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.93528649137609</v>
+        <v>11.08419695709485</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15289,23 +15289,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01044806777628638</v>
+        <v>0.01039753791048263</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07814604886951329</v>
+        <v>0.07846827972353053</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1212641364764956</v>
+        <v>0.1218866290293</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1022157902492877</v>
+        <v>0.1019683181703152</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>13.03896113330738</v>
+        <v>13.05591444961765</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15319,23 +15319,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01000051587335709</v>
+        <v>0.00982740225619135</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.07479641814135077</v>
+        <v>0.07410219044382896</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.118694599079075</v>
+        <v>0.1176080225524245</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1000025793335206</v>
+        <v>0.09913325504688802</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>12.65712207519608</v>
+        <v>12.51745254159851</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01650273339781244</v>
+        <v>0.01625908191257938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09694282385595186</v>
+        <v>0.09639158546728442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1496635241900634</v>
+        <v>0.1486961111150705</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1284629650825966</v>
+        <v>0.1275111050559103</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.54868685271202</v>
+        <v>15.46619190157567</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15385,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0140475648231985</v>
+        <v>0.01368689161603501</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.097389165815368</v>
+        <v>0.09613202154926694</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2214812411407041</v>
+        <v>0.2192599318108107</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1185224232928036</v>
+        <v>0.1169909894651507</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>16.9803978411304</v>
+        <v>16.80107637707817</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -16513,19 +16513,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03885199277839145</v>
+        <v>0.0388621023495786</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1527165215226716</v>
+        <v>0.1526901361531687</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2151622252587288</v>
+        <v>0.2151427995328935</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1971090885230599</v>
+        <v>0.1971347314644951</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.07846276465322</v>
+        <v>24.01044985305289</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16557,19 +16557,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02538912862280468</v>
+        <v>0.02483120411762342</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1249028746673219</v>
+        <v>0.1234536899166371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1806050164207745</v>
+        <v>0.179004152584723</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1593396643111962</v>
+        <v>0.1575791995081312</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.40404175782378</v>
+        <v>19.18150851160172</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17531,23 +17531,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2350911835550847</v>
+        <v>0.2350969807814074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3558424059136578</v>
+        <v>0.3560071661682788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8378655022169526</v>
+        <v>0.8373239657332032</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4848620252763509</v>
+        <v>0.4848680034621871</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>61.0372834984204</v>
+        <v>61.06527278184863</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17579,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04825112816268293</v>
+        <v>0.04772958293475262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1409552016817199</v>
+        <v>0.1402240735617497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3209316460975046</v>
+        <v>0.3196834112623548</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2196613943383838</v>
+        <v>0.2184710116577314</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>27.26561367389806</v>
+        <v>27.19210656908103</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18557,19 +18557,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2194710846065234</v>
+        <v>0.2187280210969364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3938966156677696</v>
+        <v>0.3945805787532696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1404773506512868</v>
+        <v>0.140681369135949</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4684774109885378</v>
+        <v>0.4676836763207974</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.21245356310217</v>
+        <v>15.2174592603724</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04265780040750812</v>
+        <v>0.04646250168212166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1353434316064974</v>
+        <v>0.1426325563168261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05046873615188174</v>
+        <v>0.05352272748645187</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2065376488863668</v>
+        <v>0.2155516218498985</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.829450890221249</v>
+        <v>5.077290384366648</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19579,19 +19579,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.475349943490054</v>
+        <v>1.540978086383506</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9273370003987439</v>
+        <v>0.9409476173970628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3421394242294379</v>
+        <v>0.3472088168117737</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.214639841059914</v>
+        <v>1.241361384280784</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>47.97587438590735</v>
+        <v>49.56537136607139</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4306600714677725</v>
+        <v>0.4398958848315898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4633042913680829</v>
+        <v>0.4677972533175891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1809619220505226</v>
+        <v>0.1826674573006138</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.656246959206496</v>
+        <v>0.6632464736669089</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.3387885014678</v>
+        <v>15.46618955737363</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20601,19 +20601,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3134729283535244</v>
+        <v>0.3134729283535259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.436875373539906</v>
+        <v>0.4368753735399066</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1674506044640877</v>
+        <v>0.167450604464088</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5598865316772001</v>
+        <v>0.5598865316772015</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.99955044513539</v>
+        <v>17.99955044513542</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20645,19 +20645,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1271892995665294</v>
+        <v>0.1250088587423953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.216199594685022</v>
+        <v>0.2140686780380001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1124757852055194</v>
+        <v>0.1114080844657333</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3566360884242218</v>
+        <v>0.3535659185249552</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>9.073089521740846</v>
+        <v>8.998817299921246</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21716,10 +21716,10 @@
         <v>0.01154344806255134</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0740874779526514</v>
+        <v>0.07408747795265137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1061619366314454</v>
+        <v>0.1061619366314453</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1074404396051661</v>
@@ -21743,19 +21743,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01494183263877123</v>
+        <v>0.01488481689920652</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.08870167852736745</v>
+        <v>0.08839682498063219</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1273042949625434</v>
+        <v>0.126429986455675</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1222367892198221</v>
+        <v>0.1220033479016315</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.30473333700493</v>
+        <v>14.19252397219208</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21775,19 +21775,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01609979760876763</v>
+        <v>0.01609552612780798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0936216527341958</v>
+        <v>0.09361443961301816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1438591769950524</v>
+        <v>0.1438214086839515</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1268849778688069</v>
+        <v>0.1268681446534471</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>13.92475035752897</v>
+        <v>13.92351792819716</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21805,19 +21805,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.01208525271151864</v>
+        <v>0.01218098244121581</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.08031966574326811</v>
+        <v>0.0805318969657491</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.11495861991997</v>
+        <v>0.1152336943088542</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1099329464333538</v>
+        <v>0.1103674881530599</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>11.704300881245</v>
+        <v>11.73286624451748</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -21837,16 +21837,16 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009067965026057088</v>
+        <v>0.009067965026057084</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07271949742377348</v>
+        <v>0.07271949742377345</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0.1155182753452332</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09522586322033047</v>
+        <v>0.09522586322033046</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>12.47760285238758</v>
@@ -23023,19 +23023,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05542506300484369</v>
+        <v>0.05542053172860058</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1761021696868817</v>
+        <v>0.1760950803293676</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06154732334315869</v>
+        <v>0.06154417318109934</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2354252811506098</v>
+        <v>0.2354156573565161</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>6.454682060206542</v>
+        <v>6.454327067704425</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23053,19 +23053,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05809305862328663</v>
+        <v>0.05858525017000873</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2004275983373819</v>
+        <v>0.2012602455619599</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.07144620435839719</v>
+        <v>0.07172022125426364</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2410250165922339</v>
+        <v>0.2420439013278557</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.51815966460028</v>
+        <v>7.548484998367848</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01161844832078112</v>
+        <v>0.012047551980325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08892707820450162</v>
+        <v>0.09107772936118678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03191499056625218</v>
+        <v>0.03286254638445667</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1077889062973603</v>
+        <v>0.1097613410100523</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.177073599246152</v>
+        <v>3.256201557242659</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.02527755040033057</v>
+        <v>0.02727141392038016</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1223263725120518</v>
+        <v>0.1239116918605985</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.04232554625177701</v>
+        <v>0.04262797420252511</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1589891518322259</v>
+        <v>0.1651405883493823</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>4.332301136274388</v>
+        <v>4.385439164653096</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24334,19 +24334,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06792684722361</v>
+        <v>0.06795354500436457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1688053023341653</v>
+        <v>0.1688846615911083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07931083042155944</v>
+        <v>0.07933859806233318</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2606277944188033</v>
+        <v>0.2606790076020019</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.167103863819666</v>
+        <v>7.170052743495335</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24364,19 +24364,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06707546117167365</v>
+        <v>0.06707546117167366</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1862262760092888</v>
+        <v>0.1862262760092889</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.0776621173854285</v>
+        <v>0.07766211738542853</v>
       </c>
       <c r="O13" s="8" t="n">
         <v>0.2589893070604917</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.61127298960875</v>
+        <v>7.611272989608751</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24396,19 +24396,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1051348305856564</v>
+        <v>0.1058180778442196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1600056503215257</v>
+        <v>0.1534321275905388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08982422343532664</v>
+        <v>0.08809684933142148</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3242450162849946</v>
+        <v>0.3252969072158843</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.019525590601658</v>
+        <v>6.789186705739279</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24426,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08903539609088013</v>
+        <v>0.08866693449978783</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1761234655910549</v>
+        <v>0.1766978338663119</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.08912267926464941</v>
+        <v>0.08920682230246633</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2983879958893791</v>
+        <v>0.2977699355203406</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.557753800620251</v>
+        <v>7.578821308844947</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25645,19 +25645,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06835824016653581</v>
+        <v>0.0684543802751485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1898984129964784</v>
+        <v>0.1901071653883977</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06842393006831289</v>
+        <v>0.06850175802635128</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2614540880662145</v>
+        <v>0.2616378800463505</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.261658702773433</v>
+        <v>7.27016036364603</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25675,19 +25675,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05297114483779596</v>
+        <v>0.05297114483779598</v>
       </c>
       <c r="M13" s="8" t="n">
         <v>0.1615033034045295</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.05858367752255239</v>
+        <v>0.0585836775225524</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2301546107246082</v>
+        <v>0.2301546107246083</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>6.054467265764932</v>
+        <v>6.054467265764933</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25707,19 +25707,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03308229816481284</v>
+        <v>0.0333370969771663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09717348118595644</v>
+        <v>0.09773503032370742</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04249003029068649</v>
+        <v>0.0425811832420449</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1818853984376229</v>
+        <v>0.1825844927072568</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.87811735432995</v>
+        <v>3.893808493847143</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25737,19 +25737,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04092702799352949</v>
+        <v>0.03709078409452823</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1452747839190947</v>
+        <v>0.1336559414593915</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.05642153784574518</v>
+        <v>0.05311694377558381</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2023042955389961</v>
+        <v>0.1925896780581146</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>5.524818833309777</v>
+        <v>5.125771796723582</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -26954,23 +26954,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03001244046584862</v>
+        <v>0.03241712192752679</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.13117157047043</v>
+        <v>0.1342791651316924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1688833758733788</v>
+        <v>0.1728802993271292</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1732409895661204</v>
+        <v>0.1800475546280115</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.31911089494301</v>
+        <v>20.00104670333702</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26988,19 +26988,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03662233276774006</v>
+        <v>0.03662233276774005</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1528442124385883</v>
+        <v>0.1528442124385878</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1969216328046451</v>
+        <v>0.1969216328046443</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1913696234195492</v>
+        <v>0.1913696234195491</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>22.75134765940681</v>
+        <v>22.75134765940671</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27020,19 +27020,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.805490772244175e-05</v>
+        <v>6.756136051202942e-05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006801802158579203</v>
+        <v>0.006788202926610178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008812546037063038</v>
+        <v>0.008800961742363828</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00824953984913351</v>
+        <v>0.008219571796147863</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8856995912431096</v>
+        <v>0.8844635168971907</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27050,19 +27050,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1970826190906769</v>
+        <v>0.164790672844123</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3652458145195392</v>
+        <v>0.3343087536559027</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4972762316793058</v>
+        <v>0.4591379233769612</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4439398822933989</v>
+        <v>0.40594417454143</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>62.7989333639551</v>
+        <v>56.49857134269658</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -27112,7 +27112,7 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04406089955204359</v>
+        <v>0.04406089955204358</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>0.1742131448120607</v>
@@ -28272,19 +28272,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03373053964521682</v>
+        <v>0.0337529644539025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.136001113077155</v>
+        <v>0.1363119585277916</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2591447943530442</v>
+        <v>0.2601056074628622</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1836587586945333</v>
+        <v>0.1837197987531624</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.18071912452781</v>
+        <v>22.23626139533787</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28302,19 +28302,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0359531424371504</v>
+        <v>0.03586413028548839</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1408351234092706</v>
+        <v>0.1401630246912675</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2558535703683161</v>
+        <v>0.2543586787540389</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1896131388832282</v>
+        <v>0.1893782730027085</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>23.04352703736444</v>
+        <v>22.932375229108</v>
       </c>
     </row>
     <row r="14">
@@ -28334,19 +28334,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1420218563934545</v>
+        <v>0.1399302852979218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3205199054140018</v>
+        <v>0.3187068685555481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7336411161030101</v>
+        <v>0.7270631225166623</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3768578729354801</v>
+        <v>0.3740725668876585</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>49.80232881886872</v>
+        <v>49.60254184220145</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28364,19 +28364,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1857787969396896</v>
+        <v>0.1883111322637764</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3697851836199503</v>
+        <v>0.3722620667351177</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8467774678213763</v>
+        <v>0.8544745343992631</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4310206456072489</v>
+        <v>0.4339483059809963</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>57.926482316666</v>
+        <v>58.23449872182947</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29584,19 +29584,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01657572225055838</v>
+        <v>0.01656644379705167</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1060200953563931</v>
+        <v>0.1058572434508086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1657927621958169</v>
+        <v>0.1655548408219376</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1287467368540204</v>
+        <v>0.1287106980676108</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>16.19101054591999</v>
+        <v>16.16472218678046</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29610,23 +29610,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0203182632819147</v>
+        <v>0.02183179938159012</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1163414822442549</v>
+        <v>0.1269535673126922</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2034131138815067</v>
+        <v>0.2030699605249353</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1425421456338956</v>
+        <v>0.1477558776549688</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.57039301855933</v>
+        <v>19.95466545237592</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29646,19 +29646,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4873143928421539</v>
+        <v>0.4873622580206562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5599570012873575</v>
+        <v>0.5594951773469929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9078701954300084</v>
+        <v>0.9074878492009186</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6980790734882073</v>
+        <v>0.6981133561397148</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>92.81312945868501</v>
+        <v>92.73522264170536</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29676,19 +29676,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6692798893948693</v>
+        <v>0.6716682042513148</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.672383795361016</v>
+        <v>0.6726590938199354</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.102765447477713</v>
+        <v>1.101248612038371</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8180952813669501</v>
+        <v>0.8195536616057028</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>105.5873205084385</v>
+        <v>105.6512102179655</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29738,19 +29738,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.026401206027753</v>
+        <v>0.02608151821313694</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1367588555931331</v>
+        <v>0.1360944171986248</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.236828528724249</v>
+        <v>0.2352322169106514</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1624844793441915</v>
+        <v>0.1614977343901051</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>21.3178504051293</v>
+        <v>21.2209750850194</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9987873435020447</v>
+        <v>0.8806549310684204</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8839657306671143</v>
+        <v>0.7193276286125183</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3870300948619843</v>
+        <v>0.3980500996112823</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9993934878225116</v>
+        <v>0.9384321664715145</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.62057292461395</v>
+        <v>26.05898082256317</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>2.130226612091064</v>
+        <v>0.9259861707687378</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.354457974433899</v>
+        <v>0.7664894461631775</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5828266143798828</v>
+        <v>0.4231643676757812</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.459529585890969</v>
+        <v>0.9622817522787896</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>41.31973683834076</v>
+        <v>27.44468450546265</v>
       </c>
     </row>
   </sheetData>
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2528464794158936</v>
+        <v>0.6517311930656433</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3920703828334808</v>
+        <v>0.7054679393768311</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.157238632440567</v>
+        <v>0.307450532913208</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5028384227720606</v>
+        <v>0.8072987012659213</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.71990442276001</v>
+        <v>24.38564896583557</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>4.930811405181885</v>
+        <v>1.758549213409424</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.12656831741333</v>
+        <v>1.283302307128906</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8153371214866638</v>
+        <v>0.5274454355239868</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>2.220543042857284</v>
+        <v>1.326103017645848</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>55.9008002281189</v>
+        <v>39.806267619133</v>
       </c>
     </row>
   </sheetData>
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9443676471710205</v>
+        <v>1.258245348930359</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9455717206001282</v>
+        <v>1.071178793907166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3486724197864532</v>
+        <v>0.4011257886886597</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9717858031330878</v>
+        <v>1.121715360031394</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.3323814868927</v>
+        <v>32.78990089893341</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2479029893875122</v>
+        <v>1.364957690238953</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.473482221364975</v>
+        <v>1.146495699882507</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1753400415182114</v>
+        <v>0.4271911680698395</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4978985733937307</v>
+        <v>1.168314037508303</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>15.93222320079803</v>
+        <v>34.83712673187256</v>
       </c>
     </row>
   </sheetData>
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09379643946886063</v>
+        <v>0.2387260645627975</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2136306911706924</v>
+        <v>0.4182266294956207</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.454485297203064</v>
+        <v>0.6261897087097168</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3062620437939717</v>
+        <v>0.4885960136583162</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>37.5301331281662</v>
+        <v>82.54614472389221</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05422258377075195</v>
+        <v>0.02636592090129852</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1839430332183838</v>
+        <v>0.1237925738096237</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.09845769405365</v>
+        <v>0.1817066222429276</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2328574322858344</v>
+        <v>0.1623758630502037</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.58951318264008</v>
+        <v>18.67218166589737</v>
       </c>
     </row>
   </sheetData>
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0942012146115303</v>
+        <v>0.02856001444160938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1956831812858582</v>
+        <v>0.1333867013454437</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.47914445400238</v>
+        <v>0.2870795130729675</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3069221637671843</v>
+        <v>0.1689970841216185</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.08902883529663</v>
+        <v>22.27849215269089</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1572651714086533</v>
+        <v>0.06222431734204292</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3179438412189484</v>
+        <v>0.2077372074127197</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.885540366172791</v>
+        <v>0.3982749879360199</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3965667300829121</v>
+        <v>0.2494480253320177</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>49.61187839508057</v>
+        <v>36.07213199138641</v>
       </c>
     </row>
   </sheetData>
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1304368078708649</v>
+        <v>0.02946808002889156</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3028835952281952</v>
+        <v>0.1339597254991531</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.437156796455383</v>
+        <v>0.3657765090465546</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3611603630949344</v>
+        <v>0.1716626925947847</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>61.20865941047668</v>
+        <v>24.93671327829361</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>240.9044799804688</v>
+        <v>0.07198765873908997</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>12.87742042541504</v>
+        <v>0.2110508680343628</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>41.94502639770508</v>
+        <v>0.5490161776542664</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>15.52109789868193</v>
+        <v>0.2683051597325142</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>188.4828567504883</v>
+        <v>36.31023764610291</v>
       </c>
     </row>
   </sheetData>
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.288314461708069</v>
+        <v>1256.8642578125</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7860037684440613</v>
+        <v>26.57698822021484</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8545868992805481</v>
+        <v>9.918206214904785</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.135039409759885</v>
+        <v>35.45228141900743</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.01311123371124</v>
+        <v>170.2778458595276</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.663363933563232</v>
+        <v>12.20784664154053</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.8633406162261963</v>
+        <v>2.613593339920044</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9605842232704163</v>
+        <v>0.9531219005584717</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.289714671376283</v>
+        <v>3.493972902233291</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.82554543018341</v>
+        <v>101.6600608825684</v>
       </c>
     </row>
   </sheetData>
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.005721092224121</v>
+        <v>0.1359214633703232</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5728103518486023</v>
+        <v>0.2391577363014221</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7332011461257935</v>
+        <v>0.1132418364286423</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.00285646641188</v>
+        <v>0.3686752817457704</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.76003265380859</v>
+        <v>9.709828346967697</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>128157.1015625</v>
+        <v>0.176680713891983</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>288.920654296875</v>
+        <v>0.2686521410942078</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>182.5970916748047</v>
+        <v>0.1302468627691269</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>357.9903651811037</v>
+        <v>0.4203340503599287</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>196.2218642234802</v>
+        <v>10.77193543314934</v>
       </c>
     </row>
   </sheetData>
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9898592233657837</v>
+        <v>3.958641767501831</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5721501708030701</v>
+        <v>1.472887396812439</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4407384693622589</v>
+        <v>0.6261551976203918</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9949166916711085</v>
+        <v>1.989633576189805</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.30817580223083</v>
+        <v>41.34761393070221</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7723504304885864</v>
+        <v>0.1809624880552292</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4601907730102539</v>
+        <v>0.2479978501796722</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3775758445262909</v>
+        <v>0.1648366749286652</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8788347003211618</v>
+        <v>0.4253968594797441</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>19.71908062696457</v>
+        <v>11.37821227312088</v>
       </c>
     </row>
   </sheetData>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03106222674250603</v>
+        <v>0.02519639022648335</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1354154348373413</v>
+        <v>0.1281477212905884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1800485700368881</v>
+        <v>0.1851917654275894</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1762447921003796</v>
+        <v>0.1587337085388083</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.24961113929749</v>
+        <v>19.05182003974915</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02923228964209557</v>
+        <v>0.03275443986058235</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1375604569911957</v>
+        <v>0.1391025930643082</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2524979114532471</v>
+        <v>0.327000617980957</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1709745292202776</v>
+        <v>0.1809818771606217</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.02278620004654</v>
+        <v>23.13517034053802</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.390192747116089</v>
+        <v>0.06480275094509125</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9242071509361267</v>
+        <v>0.1929048001766205</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.960486531257629</v>
+        <v>0.6528418660163879</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.17906435240664</v>
+        <v>0.2545638445362798</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>73.75606894493103</v>
+        <v>31.56777620315552</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04232475906610489</v>
+        <v>0.05814876034855843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1780586838722229</v>
+        <v>0.2028645873069763</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06579471379518509</v>
+        <v>0.07312458008527756</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2057298205562453</v>
+        <v>0.2411405406574316</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.434477120637894</v>
+        <v>7.477059215307236</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1981948763132095</v>
+        <v>0.1528062522411346</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3867747783660889</v>
+        <v>0.2836003303527832</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1396024227142334</v>
+        <v>0.1281886845827103</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4451908313445028</v>
+        <v>0.3909044029441657</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.93742614984512</v>
+        <v>11.41268610954285</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1572136431932449</v>
+        <v>0.9708685278892517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2941384315490723</v>
+        <v>0.8433529734611511</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1360977292060852</v>
+        <v>0.4448578655719757</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3965017568602249</v>
+        <v>0.9853266097539697</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.13674172759056</v>
+        <v>29.83133792877197</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01852564513683319</v>
+        <v>0.04133733734488487</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1184630542993546</v>
+        <v>0.1589220464229584</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.176482766866684</v>
+        <v>0.2855264246463776</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1361089458369037</v>
+        <v>0.2033158561078916</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.84362888336182</v>
+        <v>22.72953242063522</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04516223445534706</v>
+        <v>0.04615234956145287</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1925747990608215</v>
+        <v>0.1760725528001785</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.307047963142395</v>
+        <v>0.3134356141090393</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2125140806049026</v>
+        <v>0.2148309790543554</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.92925727367401</v>
+        <v>24.91102963685989</v>
       </c>
     </row>
   </sheetData>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04596611112356186</v>
+        <v>0.0623241625726223</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1639241427183151</v>
+        <v>0.1876882165670395</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3998003304004669</v>
+        <v>0.6639290452003479</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2143970874885241</v>
+        <v>0.249648077446277</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.47496163845062</v>
+        <v>30.93401193618774</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04462240263819695</v>
+        <v>0.05044147744774818</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1692184954881668</v>
+        <v>0.1723352372646332</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3817660510540009</v>
+        <v>0.5307855606079102</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.211240153943792</v>
+        <v>0.2245918018266655</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.46331989765167</v>
+        <v>29.5109897851944</v>
       </c>
     </row>
   </sheetData>
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03766119107604027</v>
+        <v>0.1636638641357422</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1596775650978088</v>
+        <v>0.3480426967144012</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3080039024353027</v>
+        <v>0.7951234579086304</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1940649145931337</v>
+        <v>0.404553907576904</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.02566969394684</v>
+        <v>45.44857740402222</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03357824683189392</v>
+        <v>0.0318123884499073</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.15959432721138</v>
+        <v>0.1423952132463455</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2798113226890564</v>
+        <v>0.3100742101669312</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1832436815606309</v>
+        <v>0.1783602771076209</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.22424554824829</v>
+        <v>24.65395033359528</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA11 Overall Model Peformance Results.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="16" activeTab="23" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.23936576403386</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02039849665340829</v>
+        <v>0.0585582780044777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09892334110560715</v>
+        <v>0.1900767357133461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1195522199899379</v>
+        <v>0.6028780107899115</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1428233057081662</v>
+        <v>0.2419881774064132</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.41440215628477</v>
+        <v>33.46315548819099</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02103539249734765</v>
+        <v>0.0584159830275822</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1002129988941046</v>
+        <v>0.1897733157133291</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1211025757763387</v>
+        <v>0.6021938770648382</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1450358317704547</v>
+        <v>0.2416939863289575</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>13.63498354970206</v>
+        <v>33.41497207041259</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1592,23 +1592,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006108924945489766</v>
+        <v>0.0584631562255932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05879255415939588</v>
+        <v>0.1899874978660923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0765633552761376</v>
+        <v>0.6045655263539704</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07815961198400211</v>
+        <v>0.2417915553231609</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.914757535713949</v>
+        <v>33.43764979906006</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1622,23 +1622,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.009996811831397804</v>
+        <v>0.0345826607989226</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.07870826852180735</v>
+        <v>0.1436379959382014</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.106591157577303</v>
+        <v>0.4927936964784578</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.09998405788623406</v>
+        <v>0.1859641384754669</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>11.28241747455756</v>
+        <v>26.64010183673737</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02454806864261627</v>
+        <v>0.06035984</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1325255483388901</v>
+        <v>0.1828849</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1860867589712143</v>
+        <v>0.7448538</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1566782328296317</v>
+        <v>0.2456823952789151</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.90171468257904</v>
+        <v>31.201171875</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02332827635109425</v>
+        <v>0.07063817999999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.128748893737793</v>
+        <v>0.1975465</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1842029243707657</v>
+        <v>0.81132656</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1527359694083036</v>
+        <v>0.2657784411479846</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>18.32515150308609</v>
+        <v>32.77731239795685</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01939739659428596</v>
+        <v>0.024601866</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1180914342403412</v>
+        <v>0.13290806</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1522219330072403</v>
+        <v>0.19045536</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1392745367764185</v>
+        <v>0.1568498184883118</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.78697562217712</v>
+        <v>18.52015405893325</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01677794009447098</v>
+        <v>0.024707872</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1103323698043823</v>
+        <v>0.13203223</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1427980214357376</v>
+        <v>0.18709488</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1295296880814239</v>
+        <v>0.1571873799659164</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.70691412687302</v>
+        <v>18.39424222707748</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -2205,23 +2205,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2239,19 +2239,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1053674990088677</v>
+        <v>0.5478164365409228</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2763454640608003</v>
+        <v>0.6391769576411629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1081278951788363</v>
+        <v>0.2684674971014953</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3246036028895362</v>
+        <v>0.7401462264586119</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.30581715903516</v>
+        <v>27.28445556280517</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1575446651597618</v>
+        <v>0.7896641035180393</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3171626708561844</v>
+        <v>0.7394735069396947</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.122983566129193</v>
+        <v>0.2935835999821685</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3969189654825803</v>
+        <v>0.8886304651079882</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>13.47934993969151</v>
+        <v>32.52690584663219</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,53 +2907,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.8506324351364657</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.8216776305496919</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3311894941417768</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.9222973680632868</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>37.58761400048144</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>1.779475502959986</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>1.206774343786212</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.4572226983213115</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>1.333969828354444</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>61.50023065126092</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>1.252064179591497</v>
+        <v>2.058865826870415</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.015813022128057</v>
+        <v>1.216560315898364</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3770819609627146</v>
+        <v>0.4790392623440482</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.118956737140224</v>
+        <v>1.434874847110512</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>49.10275176054338</v>
+        <v>71.74719214064019</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3051,23 +3051,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1749741733074188</v>
+        <v>1.0140584</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2653410732746124</v>
+        <v>0.85685265</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1345875412225723</v>
+        <v>0.45228815</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4182991433261833</v>
+        <v>1.007004643244868</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.86005866527557</v>
+        <v>30.16957342624664</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1543029248714447</v>
+        <v>0.5544739400000001</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3140426576137543</v>
+        <v>0.5457571</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1424289345741272</v>
+        <v>0.31733587</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.392814109817156</v>
+        <v>0.7446300669176406</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>12.69724071025848</v>
+        <v>21.1285188794136</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3113,23 +3113,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08758309483528137</v>
+        <v>0.56925243</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2346005886793137</v>
+        <v>0.6275066</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08800946176052094</v>
+        <v>0.2217055</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2959444117318004</v>
+        <v>0.7544881916853766</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.568159490823746</v>
+        <v>25.88454186916352</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08526741713285446</v>
+        <v>0.6310101</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2352619171142578</v>
+        <v>0.6330229000000001</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08562690764665604</v>
+        <v>0.22329849</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2920058511962637</v>
+        <v>0.7943614511962656</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.664602041244507</v>
+        <v>26.68504118919373</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8806549310684204</v>
+        <v>0.80842906</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7193276286125183</v>
+        <v>0.68667114</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3980500996112823</v>
+        <v>0.3843861</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9384321664715145</v>
+        <v>0.8991268333035588</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.05898082256317</v>
+        <v>25.16934275627136</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.9259861707687378</v>
+        <v>0.9011601</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7664894461631775</v>
+        <v>0.752781</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4231643676757812</v>
+        <v>0.41708037</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9622817522787896</v>
+        <v>0.94929453857275</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.44468450546265</v>
+        <v>27.06184089183808</v>
       </c>
     </row>
   </sheetData>
@@ -3517,23 +3517,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3547,23 +3547,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2353986754830824</v>
+        <v>0.5162438122045971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3534838257595098</v>
+        <v>0.5770554127922387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.126689504499235</v>
+        <v>0.2138458250960322</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4851790138527041</v>
+        <v>0.7185010871283335</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.67206164907211</v>
+        <v>24.43670218282724</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.08991836108201721</v>
+        <v>0.2505859921675767</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2297913126251985</v>
+        <v>0.4323203429321851</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.08962915394144881</v>
+        <v>0.1745893126619999</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2998639042666143</v>
+        <v>0.5005856491826116</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>8.435022107593195</v>
+        <v>16.91856019600325</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5748916415707144</v>
+        <v>3.152055974147904</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.659143529521517</v>
+        <v>1.717949271641905</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2341426654226918</v>
+        <v>0.634864668672996</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7582160916062877</v>
+        <v>1.775403045549912</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.50742125366909</v>
+        <v>95.60964439767372</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.3790356495744907</v>
+        <v>0.4715435630406851</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5854806213580922</v>
+        <v>0.6166910137359709</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2151503325215229</v>
+        <v>0.2329820513546721</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.6156587119293372</v>
+        <v>0.6866902963059003</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.46126623207016</v>
+        <v>26.05097311886063</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4363,23 +4363,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09070257842540741</v>
+        <v>0.17931397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2426358908414841</v>
+        <v>0.31146398</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09665854275226593</v>
+        <v>0.13588952</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3011686876576106</v>
+        <v>0.4234548058439694</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.156838804483414</v>
+        <v>12.52730041742325</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4393,23 +4393,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07683028280735016</v>
+        <v>0.6111147</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2003920823335648</v>
+        <v>0.6618332</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.08035136014223099</v>
+        <v>0.29233462</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2771827606604533</v>
+        <v>0.7817382431268534</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>7.602876424789429</v>
+        <v>23.10395687818527</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04132604971528053</v>
+        <v>0.30148357</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1448902934789658</v>
+        <v>0.46884602</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05583205446600914</v>
+        <v>0.17112882</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2032880953604528</v>
+        <v>0.5490751966073394</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.348639190196991</v>
+        <v>18.54367852210999</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0539793036878109</v>
+        <v>1.5006416</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1976973563432693</v>
+        <v>1.0751647</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07362658530473709</v>
+        <v>0.3824459</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2323344651312217</v>
+        <v>1.22500676912267</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.234495878219604</v>
+        <v>32.56179690361023</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6517311930656433</v>
+        <v>0.6493176000000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7054679393768311</v>
+        <v>0.70364547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.307450532913208</v>
+        <v>0.3067665</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8072987012659213</v>
+        <v>0.8058024709472871</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.38564896583557</v>
+        <v>24.3330866098404</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.758549213409424</v>
+        <v>1.7585584</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.283302307128906</v>
+        <v>1.283308</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5274454355239868</v>
+        <v>0.52744716</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.326103017645848</v>
+        <v>1.326106478577312</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>39.806267619133</v>
+        <v>39.80640470981598</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.125026859030909</v>
+        <v>1.032768321780986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3273784930520338</v>
+        <v>0.7921041159247998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.116129634696885</v>
+        <v>0.2932180191921334</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.353591372958828</v>
+        <v>1.01625209558504</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.42612936094664</v>
+        <v>25.08752193775138</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.08669856782117302</v>
+        <v>0.2023739769658691</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2090522350949121</v>
+        <v>0.3737544312882335</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.0714726416709011</v>
+        <v>0.1339339446564704</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2944462053095149</v>
+        <v>0.4498599526139987</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>7.597573434886486</v>
+        <v>13.64269160078721</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.00161312870788</v>
+        <v>2.349382150819795</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9252687323697895</v>
+        <v>1.365978891470388</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3283375100620313</v>
+        <v>0.5006529010227998</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.000806239343001</v>
+        <v>1.532769438245621</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.68944019386849</v>
+        <v>73.65431149275823</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.2113422219745201</v>
+        <v>5.183173987089775</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3932383530119564</v>
+        <v>2.193448187275341</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1371669565474061</v>
+        <v>0.8126642455835164</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4597197211068066</v>
+        <v>2.276658513499505</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>15.07959312140815</v>
+        <v>140.079941860892</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5675,23 +5675,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03229110315442085</v>
+        <v>0.40760854</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.144840344786644</v>
+        <v>0.5941655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05238960310816765</v>
+        <v>0.22594836</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.179697254164945</v>
+        <v>0.6384422752810492</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.233300849795341</v>
+        <v>19.89215165376663</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5705,23 +5705,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08957663923501968</v>
+        <v>0.09791634</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2098898142576218</v>
+        <v>0.2962304</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.07146137207746506</v>
+        <v>0.10960656</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2992935669790109</v>
+        <v>0.312915870991003</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>7.65107050538063</v>
+        <v>10.36795824766159</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06541809439659119</v>
+        <v>1.0633521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2138753980398178</v>
+        <v>1.0026233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0734490305185318</v>
+        <v>0.36274818</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2557696119490961</v>
+        <v>1.031189656659583</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.621345669031143</v>
+        <v>45.24677693843842</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04635606706142426</v>
+        <v>0.7397133</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1553932726383209</v>
+        <v>0.7190913</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05211317539215088</v>
+        <v>0.25986814</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2153045913616899</v>
+        <v>0.8600658760789045</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.47303594648838</v>
+        <v>23.65720272064209</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.258245348930359</v>
+        <v>1.2570821</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.071178793907166</v>
+        <v>1.0706993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4011257886886597</v>
+        <v>0.40096658</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.121715360031394</v>
+        <v>1.121196728804951</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.78990089893341</v>
+        <v>32.77856409549713</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.364957690238953</v>
+        <v>1.3648901</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.146495699882507</v>
+        <v>1.1464647</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4271911680698395</v>
+        <v>0.42717957</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.168314037508303</v>
+        <v>1.168285110138693</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>34.83712673187256</v>
+        <v>34.83632504940033</v>
       </c>
     </row>
   </sheetData>
@@ -6139,23 +6139,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04307249302249967</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1444902053073924</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.082152562525829</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2075391361225628</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>29.66469904354527</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6169,23 +6169,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04352786532704928</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1463508534520188</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.08428839826708</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2086333274600424</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>29.90616199342748</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,53 +6263,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.7645341769103234</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.7198498828912424</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.081483161959588</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.8743764503406547</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>127.8281816054524</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>0.04741835784079175</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.1352866352894194</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1.154206175038124</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.217757566667135</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>27.58731953431267</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>0.4012424358802271</v>
+        <v>0.0141023879571072</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5847307139582304</v>
+        <v>0.1018402040117156</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9558429723829484</v>
+        <v>0.1495203530536281</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.633437002297961</v>
+        <v>0.1187534755580117</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>184.9437366011025</v>
+        <v>15.90691804685692</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6841,23 +6841,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05287251365761335</v>
+        <v>0.0142078740908998</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1667813125310141</v>
+        <v>0.0917429735052603</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.177581275459227</v>
+        <v>0.1267290145466027</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2299402393179875</v>
+        <v>0.1191967872507471</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.80922422454865</v>
+        <v>13.34056400651788</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6871,23 +6871,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05434840432822551</v>
+        <v>0.0056563180499148</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1715709585373859</v>
+        <v>0.0588986467643318</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.184007302389395</v>
+        <v>0.08099823132720629</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2331274422461361</v>
+        <v>0.0752084971922375</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>33.50564914266134</v>
+        <v>8.27810448997135</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07774229347705841</v>
+        <v>0.048940707</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1970323324203491</v>
+        <v>0.17774236</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.444095373153687</v>
+        <v>0.29092014</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2788230504765673</v>
+        <v>0.2212254664321217</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>35.80340147018433</v>
+        <v>27.64106094837189</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7015,23 +7015,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05179642140865326</v>
+        <v>0.008623723999999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1558180302381516</v>
+        <v>0.07585997</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.158780813217163</v>
+        <v>0.10626164</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2275882716851931</v>
+        <v>0.0928640074087153</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.61622977256775</v>
+        <v>11.04081645607948</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7047,23 +7047,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05589989200234413</v>
+        <v>0.04941632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1661050170660019</v>
+        <v>0.18291634</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6465443968772888</v>
+        <v>0.25524288</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2364315799599202</v>
+        <v>0.2222978149595824</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>29.71184551715851</v>
+        <v>29.59652245044708</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7077,23 +7077,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07210977375507355</v>
+        <v>0.13724123</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2065984159708023</v>
+        <v>0.27094138</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6029661297798157</v>
+        <v>0.34998482</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2685326307082131</v>
+        <v>0.3704608338474391</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>39.75583910942078</v>
+        <v>50.01471638679504</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2387260645627975</v>
+        <v>0.23607837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4182266294956207</v>
+        <v>0.41517547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6261897087097168</v>
+        <v>0.6235324</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4885960136583162</v>
+        <v>0.4858789629498584</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>82.54614472389221</v>
+        <v>81.38354420661926</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.02636592090129852</v>
+        <v>0.023222018</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1237925738096237</v>
+        <v>0.11783853</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1817066222429276</v>
+        <v>0.17673475</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1623758630502037</v>
+        <v>0.1523877227117265</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>18.67218166589737</v>
+        <v>17.67435520887375</v>
       </c>
     </row>
   </sheetData>
@@ -7449,23 +7449,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06569417642671847</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1680621509996278</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.154158092019591</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2563087521461537</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>31.90699401870898</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06569417642671847</v>
+        <v>0.038666039045447</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1680621509996278</v>
+        <v>0.1565679935769343</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.154158092019591</v>
+        <v>0.3334960004116293</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2563087521461537</v>
+        <v>0.1966368201671473</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>31.90699401870898</v>
+        <v>25.86014390027102</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7577,19 +7577,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09787084713849513</v>
+        <v>0.0116450504339944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.285731924374936</v>
+        <v>0.0771150372917337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9967621059226124</v>
+        <v>0.1455320909357464</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3128431669998485</v>
+        <v>0.1079122348670181</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>73.57643123636154</v>
+        <v>12.94070350510089</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4143339080495433</v>
+        <v>0.0163355079591673</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5959969275206045</v>
+        <v>0.09062624540932419</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1</v>
+        <v>0.1667435759452165</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6436877411055327</v>
+        <v>0.1278104375986849</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>200</v>
+        <v>15.09893810095148</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05324298057259107</v>
+        <v>0.0111461234085698</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1635990026482941</v>
+        <v>0.08579751464487401</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.229417054348433</v>
+        <v>0.1527286357930469</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2307444052899031</v>
+        <v>0.1055752026214953</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.10060458502534</v>
+        <v>14.47798634240134</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05344056257742446</v>
+        <v>0.0209369749144878</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1644578429804456</v>
+        <v>0.1151185557972313</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.228929426516965</v>
+        <v>0.2006359429136431</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2311721492252569</v>
+        <v>0.1446961468543229</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>32.21885088584574</v>
+        <v>19.38038969518193</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08807145059108734</v>
+        <v>0.021715458</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2113238126039505</v>
+        <v>0.12713669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.487754821777344</v>
+        <v>0.2524486</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.296768344995027</v>
+        <v>0.1473616587939478</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.81505823135376</v>
+        <v>22.25019931793213</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8325,23 +8325,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07890598475933075</v>
+        <v>0.03320141</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2196757197380066</v>
+        <v>0.1364698</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.439288735389709</v>
+        <v>0.3047798</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2809020910554614</v>
+        <v>0.18221254448161</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.6946132183075</v>
+        <v>22.88230508565903</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03402750566601753</v>
+        <v>0.024674134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1318228542804718</v>
+        <v>0.11838099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4742231965065002</v>
+        <v>0.15956463</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1844654592763034</v>
+        <v>0.1570800252386068</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.95155483484268</v>
+        <v>17.03021377325058</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03257254883646965</v>
+        <v>0.060168847</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1280371695756912</v>
+        <v>0.2094728</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4175171256065369</v>
+        <v>0.30390966</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.180478665876246</v>
+        <v>0.2452933905380927</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.9915058016777</v>
+        <v>29.68477010726929</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02856001444160938</v>
+        <v>0.028563112</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1333867013454437</v>
+        <v>0.13338159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2870795130729675</v>
+        <v>0.2871137</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1689970841216185</v>
+        <v>0.1690062484658261</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.27849215269089</v>
+        <v>22.27760553359985</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06222431734204292</v>
+        <v>0.062217027</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2077372074127197</v>
+        <v>0.20772037</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3982749879360199</v>
+        <v>0.39829612</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2494480253320177</v>
+        <v>0.2494334118536023</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.07213199138641</v>
+        <v>36.0668957233429</v>
       </c>
     </row>
   </sheetData>
@@ -8763,19 +8763,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06268957211963207</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.197865821552497</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.23105693816201</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2503788571737479</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>36.74265040738904</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06951336729224504</v>
+        <v>0.0308895091009892</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1520267053192309</v>
+        <v>0.141286510350082</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.461101598951884</v>
+        <v>0.3396551360798475</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2636538778251612</v>
+        <v>0.1757541154596079</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.07231007553565</v>
+        <v>25.59397296839828</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03329953359723595</v>
+        <v>0.0183504820944999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1286017618987385</v>
+        <v>0.1006858129370681</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.025082102359171</v>
+        <v>0.2315458382681878</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1824815979687704</v>
+        <v>0.135463951273023</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.1471193453633</v>
+        <v>18.39283379931363</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>18.12392991126508</v>
+        <v>0.2598702447505993</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>3.841592286904493</v>
+        <v>0.4284986827225943</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>9.009403823142959</v>
+        <v>0.7396297689258396</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>4.25722091407823</v>
+        <v>0.5097746999906912</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>178.0194298430422</v>
+        <v>100.0930556793756</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03826359215234085</v>
+        <v>0.007872198065351201</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1320326895851291</v>
+        <v>0.0712001783908511</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.14035468890592</v>
+        <v>0.174410979340789</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1956108180861704</v>
+        <v>0.0887254082287102</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.98843441379989</v>
+        <v>14.12694528557293</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04611925105949886</v>
+        <v>0.0200532888167278</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1456402799480725</v>
+        <v>0.1104239294324988</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.210563177626777</v>
+        <v>0.2835820634668576</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2147539314180275</v>
+        <v>0.1416096353244644</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.81575243809193</v>
+        <v>20.76671374784723</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9605,23 +9605,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05266672372817993</v>
+        <v>0.039574716</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.190798744559288</v>
+        <v>0.14895742</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7980981469154358</v>
+        <v>0.47255057</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2294923173619978</v>
+        <v>0.1989339494409328</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>42.56379008293152</v>
+        <v>26.15429759025574</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9635,23 +9635,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3861181735992432</v>
+        <v>0.07451867</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5262458920478821</v>
+        <v>0.19830136</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.655372858047485</v>
+        <v>0.6495149</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.621384078971487</v>
+        <v>0.2729810856486749</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>121.3585257530212</v>
+        <v>33.4141880273819</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9671,19 +9671,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02262268774211407</v>
+        <v>0.010331949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1194862499833107</v>
+        <v>0.08083562599999999</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3103973865509033</v>
+        <v>0.1262245</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1504084031632344</v>
+        <v>0.1016461962845025</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.71043509244919</v>
+        <v>12.0874360203743</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9697,23 +9697,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1282892823219299</v>
+        <v>0.019651227</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3109447956085205</v>
+        <v>0.11368275</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5773970484733582</v>
+        <v>0.1792693</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3581749325705666</v>
+        <v>0.140182833112162</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>63.42790126800537</v>
+        <v>17.44083911180496</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02946808002889156</v>
+        <v>0.029466378</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1339597254991531</v>
+        <v>0.13395286</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3657765090465546</v>
+        <v>0.36580965</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1716626925947847</v>
+        <v>0.171657733793806</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.93671327829361</v>
+        <v>24.93528425693512</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07198765873908997</v>
+        <v>0.071983375</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2110508680343628</v>
+        <v>0.21104938</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5490161776542664</v>
+        <v>0.54901946</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2683051597325142</v>
+        <v>0.2682971760105699</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.31023764610291</v>
+        <v>36.30838096141815</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.51790038361044</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3600031965124973</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6062176208571961</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7196529605375358</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.78396731996065</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.51790038361044</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3600031965124973</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6062176208571961</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7196529605375358</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>17.78396731996065</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5161902595608893</v>
+        <v>4.838947248953335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3356055222245092</v>
+        <v>1.960893670475564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5711621920908626</v>
+        <v>0.7264574923899826</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7184638192427572</v>
+        <v>2.199760725386589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.88524054644678</v>
+        <v>112.6692825601273</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10227,19 +10227,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>5.801906464918591</v>
+        <v>6.409310472910092</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>1.706085387814601</v>
+        <v>2.382440007111465</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9176697967949319</v>
+        <v>0.8836786345479741</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.40871469147315</v>
+        <v>2.531661603159097</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>73.05554558748638</v>
+        <v>140.339503339768</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5162000009778891</v>
+        <v>0.0248482159192236</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3609820102241452</v>
+        <v>0.1229599477113307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5866160887003137</v>
+        <v>0.0439700548012647</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7184705985479776</v>
+        <v>0.1576331688421685</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.87942585951762</v>
+        <v>4.505330637046356</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5180646475357268</v>
+        <v>0.0393873897180302</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3614994365905366</v>
+        <v>0.1542554163819293</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5871706308915817</v>
+        <v>0.0566886922423106</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7197670786690141</v>
+        <v>0.1984625650293532</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>17.89378061222999</v>
+        <v>5.873770298672292</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4867944121360779</v>
+        <v>0.09080618999999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3157901167869568</v>
+        <v>0.24741653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5554114580154419</v>
+        <v>0.0956245</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.697706537260529</v>
+        <v>0.3013406604654752</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.16643220186234</v>
+        <v>9.002786129713058</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,19 +10949,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6267229318618774</v>
+        <v>0.09781913</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.42945596575737</v>
+        <v>0.25446147</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6276962757110596</v>
+        <v>0.09361361</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7916583428865495</v>
+        <v>0.3127604948557752</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.15201896429062</v>
+        <v>9.45408046245575</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10977,23 +10977,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3201611936092377</v>
+        <v>0.35277063</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3649970591068268</v>
+        <v>0.40405327</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2436615228652954</v>
+        <v>0.14076668</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5658278833790693</v>
+        <v>0.5939449692900449</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.92773944139481</v>
+        <v>16.55219048261642</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11007,23 +11007,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4032975733280182</v>
+        <v>0.45208836</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4375962316989899</v>
+        <v>0.48596027</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2659848034381866</v>
+        <v>0.17514318</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6350571417817599</v>
+        <v>0.6723751601732967</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.59119737148285</v>
+        <v>21.75388038158417</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1256.8642578125</v>
+        <v>1256.499</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26.57698822021484</v>
+        <v>26.570429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.918206214904785</v>
+        <v>9.916073000000001</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>35.45228141900743</v>
+        <v>35.44712997461854</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>170.2778458595276</v>
+        <v>170.2703356742859</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>12.20784664154053</v>
+        <v>12.205548</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.613593339920044</v>
+        <v>2.6133797</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.9531219005584717</v>
+        <v>0.9530444</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>3.493972902233291</v>
+        <v>3.493643983928241</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>101.6600608825684</v>
+        <v>101.6579627990723</v>
       </c>
     </row>
   </sheetData>
@@ -11379,23 +11379,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.575800990090811</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4380556937993376</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6300519555865471</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7588155178242014</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>20.69951706871148</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11409,23 +11409,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.575800990090811</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4380556937993376</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6300519555865471</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7588155178242014</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>20.69951706871148</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,23 +11503,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.556857453944392</v>
+        <v>0.1824458971599971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.659541552276866</v>
+        <v>0.3117963247032256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.146113244472546</v>
+        <v>0.1250359195928478</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.748973891099076</v>
+        <v>0.4271368599875186</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>186.2498426910126</v>
+        <v>12.61506216394219</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11533,23 +11533,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>5065.068324856207</v>
+        <v>0.1877104983052726</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>67.41865081550468</v>
+        <v>0.3192015459367397</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>40.73017380558338</v>
+        <v>0.1282568514036259</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>71.16929341265239</v>
+        <v>0.4332556962179177</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>186.1108411977874</v>
+        <v>12.92438207848002</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5273055405137896</v>
+        <v>0.0642146600046918</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3568153462849063</v>
+        <v>0.155508691833096</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6015234723200559</v>
+        <v>0.0756728894026172</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7261580685455403</v>
+        <v>0.2534061167467981</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.66336918505008</v>
+        <v>6.557604916399333</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5176306507294928</v>
+        <v>0.1442911667798593</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3347933468909629</v>
+        <v>0.2135943579958584</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5979435956905838</v>
+        <v>0.0961409384785467</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7194655313004875</v>
+        <v>0.3798567714018789</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>16.8154852926403</v>
+        <v>9.200873881282687</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12225,23 +12225,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4701672792434692</v>
+        <v>0.40397283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.327116847038269</v>
+        <v>0.47323114</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5628454089164734</v>
+        <v>0.1908525</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6856874501137302</v>
+        <v>0.6355885731734631</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.68457537889481</v>
+        <v>19.9360653758049</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12255,23 +12255,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5919674038887024</v>
+        <v>0.37834102</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6018090844154358</v>
+        <v>0.52571625</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5917347073554993</v>
+        <v>0.22488287</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7693941797860849</v>
+        <v>0.615094317282801</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.26402390003204</v>
+        <v>19.54024285078049</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12287,23 +12287,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.247121274471283</v>
+        <v>0.20727257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3456071317195892</v>
+        <v>0.26859635</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1951282918453217</v>
+        <v>0.0933011</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4971129393520983</v>
+        <v>0.4552719783882315</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.79665488004684</v>
+        <v>10.67163720726967</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12317,23 +12317,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3134242594242096</v>
+        <v>0.15602037</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4044804871082306</v>
+        <v>0.270033</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2051397860050201</v>
+        <v>0.09492420999999999</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5598430667822989</v>
+        <v>0.394994143128734</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.29663163423538</v>
+        <v>10.28335094451904</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1359214633703232</v>
+        <v>0.15499797</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2391577363014221</v>
+        <v>0.2555759</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1132418364286423</v>
+        <v>0.11913244</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3686752817457704</v>
+        <v>0.3936978214750121</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.709828346967697</v>
+        <v>10.29214859008789</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.176680713891983</v>
+        <v>0.17656803</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2686521410942078</v>
+        <v>0.26849642</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1302468627691269</v>
+        <v>0.13017039</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4203340503599287</v>
+        <v>0.4201999896609175</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>10.77193543314934</v>
+        <v>10.76739877462387</v>
       </c>
     </row>
   </sheetData>
@@ -12689,23 +12689,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5393884823395788</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4246968508340793</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3378965207350837</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7344307199045931</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.61130821732982</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12719,23 +12719,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.3784763815716566</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2670954882836717</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2317650082328771</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.615204341314052</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>12.74714883240975</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,53 +12813,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.107505519885816</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.442372156502762</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9596058728546464</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.471336788033112</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>171.8108887626122</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>0.3336107085711337</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.286800652619086</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0.2460799938659355</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.5775904332406603</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>14.66597167352406</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>0.339428869643622</v>
+        <v>0.2170450595847909</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3118467115190799</v>
+        <v>0.3378455504533786</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2550638004159287</v>
+        <v>0.1668577029018947</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5826052434055344</v>
+        <v>0.4658809500127591</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.78984330522735</v>
+        <v>14.8456456228626</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3391559652519102</v>
+        <v>0.1584334945815114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2748392783545557</v>
+        <v>0.2680083497979602</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2435244470309753</v>
+        <v>0.1474437427354148</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5823709859289954</v>
+        <v>0.3980370517696958</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>13.96380784249427</v>
+        <v>12.20529657320969</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.3153813448733095</v>
+        <v>0.08706424615414179</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2480540412522646</v>
+        <v>0.2017129655683663</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.222542073891029</v>
+        <v>0.104056106900269</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.5615882342725046</v>
+        <v>0.2950665114074144</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>12.46129270795526</v>
+        <v>9.236517928101188</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13535,23 +13535,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.861836314201355</v>
+        <v>0.3567879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.55218106508255</v>
+        <v>0.36813942</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4286252558231354</v>
+        <v>0.23634075</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9283513958633094</v>
+        <v>0.5973172441808846</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.16338568925858</v>
+        <v>15.3844490647316</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13565,23 +13565,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5935684442520142</v>
+        <v>0.30852607</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5873975157737732</v>
+        <v>0.39114368</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3637036383152008</v>
+        <v>0.22572462</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7704339324380866</v>
+        <v>0.5554512300156131</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.23590433597565</v>
+        <v>16.7904332280159</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13597,23 +13597,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2251513302326202</v>
+        <v>0.22905177</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2490508705377579</v>
+        <v>0.3836338</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1549052149057388</v>
+        <v>0.14118105</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4745011382837983</v>
+        <v>0.4785935319033831</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.92986017465591</v>
+        <v>14.93478417396545</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13627,23 +13627,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1186836808919907</v>
+        <v>0.05822587</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1755326390266418</v>
+        <v>0.18909337</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1087187826633453</v>
+        <v>0.071260974</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3445049794879468</v>
+        <v>0.2413003732538478</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.192525804042816</v>
+        <v>7.180822640657425</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.958641767501831</v>
+        <v>3.9572537</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.472887396812439</v>
+        <v>1.4729656</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6261551976203918</v>
+        <v>0.6260856</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.989633576189805</v>
+        <v>1.989284719323582</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>41.34761393070221</v>
+        <v>41.35935306549072</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1809624880552292</v>
+        <v>0.18095736</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2479978501796722</v>
+        <v>0.24810134</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1648366749286652</v>
+        <v>0.16485684</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4253968594797441</v>
+        <v>0.4253908344755191</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>11.37821227312088</v>
+        <v>11.38167381286621</v>
       </c>
     </row>
   </sheetData>
@@ -13963,23 +13963,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03697890191916081</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1566026040415228</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2334777849854888</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1922989909468087</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>24.05379813579672</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14051,23 +14051,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02352529579017805</v>
+        <v>0.0319637740855449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1097468883567103</v>
+        <v>0.1382341840502077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1380519662400542</v>
+        <v>0.1879776783369268</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1533795807471713</v>
+        <v>0.1787841550181248</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.5029420182506</v>
+        <v>20.70775562205699</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01871225794844261</v>
+        <v>0.0317746011471489</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.100321334934185</v>
+        <v>0.1449021071298349</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1287871675965921</v>
+        <v>0.1999553977741024</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1367927554676877</v>
+        <v>0.1782543159285321</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.04591646576618</v>
+        <v>21.83818257471665</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02220302820205688</v>
+        <v>0.09617734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1153182238340378</v>
+        <v>0.27342662</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1728139221668243</v>
+        <v>0.37243852</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.149006805891734</v>
+        <v>0.3101247161285811</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.40417277812958</v>
+        <v>47.58937358856201</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01740426197648048</v>
+        <v>0.020999765</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1124673932790756</v>
+        <v>0.12696658</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1453363597393036</v>
+        <v>0.1813502</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1319252135737535</v>
+        <v>0.1449129567139844</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.9966835975647</v>
+        <v>17.5896167755127</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02519639022648335</v>
+        <v>0.025204577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1281477212905884</v>
+        <v>0.12818372</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1851917654275894</v>
+        <v>0.18524581</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1587337085388083</v>
+        <v>0.1587594927930743</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.05182003974915</v>
+        <v>19.05739158391953</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15021,23 +15021,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01122762496118662</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07703282889395506</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1405903598851261</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1059604877356962</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.07731850230998</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15051,23 +15051,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03725572180632283</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1248212034935653</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2102995828355222</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.193017413220473</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.17714380224943</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15149,19 +15149,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02318345649878691</v>
+        <v>0.0677290390473982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.109740725494039</v>
+        <v>0.2091385868044314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2265983641626896</v>
+        <v>0.7527665614719842</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1522611457292599</v>
+        <v>0.2602480337051527</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.20133038969487</v>
+        <v>37.93907008774959</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15179,19 +15179,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02316624266531719</v>
+        <v>0.0675905448250288</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1093959639013495</v>
+        <v>0.2088549057753801</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2258935476681892</v>
+        <v>0.7522514996766227</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1522046078977808</v>
+        <v>0.2599818163353522</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.14044167968315</v>
+        <v>37.89307768676532</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15723,23 +15723,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009269543109519732</v>
+        <v>0.0674329008815691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07724043659445194</v>
+        <v>0.2088630177250339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1496902322892767</v>
+        <v>0.7530095819601339</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09627846648924011</v>
+        <v>0.2596784567143935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>13.82830801110256</v>
+        <v>37.89204818517277</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15753,23 +15753,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.009269543109519732</v>
+        <v>0.050085174970881</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.07724043659445194</v>
+        <v>0.1779699485945135</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1496902322892767</v>
+        <v>0.6757412602615579</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.09627846648924011</v>
+        <v>0.2237971737330055</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>13.82830801110256</v>
+        <v>33.39239437757563</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15871,19 +15871,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02653678134083748</v>
+        <v>0.076001704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1200392469763756</v>
+        <v>0.22951446</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3051103949546814</v>
+        <v>0.72330505</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1629011397775887</v>
+        <v>0.2756840650802404</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.08976489305496</v>
+        <v>41.86369180679321</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15897,23 +15897,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02780359052121639</v>
+        <v>0.08268662</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1167361810803413</v>
+        <v>0.2204878</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.329108715057373</v>
+        <v>1.0216494</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1667440869152978</v>
+        <v>0.2875528090116085</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.90998089313507</v>
+        <v>37.3880535364151</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15929,23 +15929,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007180848624557257</v>
+        <v>0.047195043</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06809160113334656</v>
+        <v>0.17352323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09084025770425797</v>
+        <v>0.4106115</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08473988803720038</v>
+        <v>0.2172442022582678</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.30512472987175</v>
+        <v>27.6396244764328</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15959,23 +15959,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.008815323002636433</v>
+        <v>0.04677548</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.07380003482103348</v>
+        <v>0.17392886</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1006077006459236</v>
+        <v>0.41540483</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.09388995155306255</v>
+        <v>0.2162763946196546</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.62471643090248</v>
+        <v>27.67980992794037</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16387,19 +16387,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02543133730727951</v>
+        <v>0.0316113617192118</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1191687506451945</v>
+        <v>0.1355179926078305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1838722583196605</v>
+        <v>0.2789238204125692</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1594720580768917</v>
+        <v>0.1777958428063261</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.13376656131699</v>
+        <v>22.74443050223175</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16817,23 +16817,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03163049156720417</v>
+        <v>0.0273869116547822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1351542818139645</v>
+        <v>0.1234831352613886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2047960430386004</v>
+        <v>0.2534417242791437</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.177849631900671</v>
+        <v>0.1654899140575711</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.63558886246198</v>
+        <v>20.92619902350328</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16943,23 +16943,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03201266378164291</v>
+        <v>0.08574529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1487024575471878</v>
+        <v>0.2532177</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2621835768222809</v>
+        <v>0.40163332</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1789208310444676</v>
+        <v>0.2928229668618234</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.70812690258026</v>
+        <v>44.68418657779694</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02260297909379005</v>
+        <v>0.022360545</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1265431493520737</v>
+        <v>0.118429355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2046944946050644</v>
+        <v>0.20199893</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1503428717757848</v>
+        <v>0.1495344263096185</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.00474673509598</v>
+        <v>17.39475131034851</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03275443986058235</v>
+        <v>0.0327541</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1391025930643082</v>
+        <v>0.13910076</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.327000617980957</v>
+        <v>0.32700327</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1809818771606217</v>
+        <v>0.1809809405964207</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.13517034053802</v>
+        <v>23.13475012779236</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17317,23 +17317,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007827605539981372</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07292523914907147</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1275872866751978</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08847375622172585</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>12.82085504884582</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17405,23 +17405,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06287498351819724</v>
+        <v>0.053331949857553</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.201535128198317</v>
+        <v>0.1834787999238706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3986652944442604</v>
+        <v>0.4899735803478962</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.250748845497237</v>
+        <v>0.2309371123434972</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>36.91847103390716</v>
+        <v>31.70416921384216</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17843,19 +17843,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009298217219503645</v>
+        <v>0.0343548110303235</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07419406853995249</v>
+        <v>0.1386194680759623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1416876704883916</v>
+        <v>0.3591340288481198</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09642726388062478</v>
+        <v>0.1853505085785402</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>12.78602596573571</v>
+        <v>25.06882420047119</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17965,23 +17965,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06477328389883041</v>
+        <v>0.103568085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2173795104026794</v>
+        <v>0.2571453</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5202620029449463</v>
+        <v>0.8229584</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2545059604387104</v>
+        <v>0.3218199567117971</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.79577195644379</v>
+        <v>38.56742084026337</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02876222878694534</v>
+        <v>0.028972747</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1429281830787659</v>
+        <v>0.13640359</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1995483487844467</v>
+        <v>0.20344262</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1695943064697201</v>
+        <v>0.1702138267132155</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.17183643579483</v>
+        <v>23.14447462558746</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06480275094509125</v>
+        <v>0.064671785</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1929048001766205</v>
+        <v>0.1928316</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6528418660163879</v>
+        <v>0.65269643</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2545638445362798</v>
+        <v>0.2543064777770289</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.56777620315552</v>
+        <v>31.56384527683258</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1355113892430811</v>
+        <v>0.1565353060403251</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3104251339349532</v>
+        <v>0.326236486706875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.107143289906581</v>
+        <v>0.113753819697792</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3681187162357832</v>
+        <v>0.3956454296972545</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.55354415371811</v>
+        <v>12.37374515454657</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0724068491524595</v>
+        <v>1.563288415754932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1952159359134993</v>
+        <v>1.03007639118937</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06756236235715124</v>
+        <v>0.375495701947776</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2690852079778067</v>
+        <v>1.250315326529644</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.203087685677446</v>
+        <v>52.34704539729066</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18987,23 +18987,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0459127239882946</v>
+        <v>0.23702815</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.180263876914978</v>
+        <v>0.43889448</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06475698947906494</v>
+        <v>0.15537305</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2142725460442718</v>
+        <v>0.4868553704649508</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.517954170703888</v>
+        <v>17.12364256381989</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19031,23 +19031,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04174353554844856</v>
+        <v>0.11965095</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1618830263614655</v>
+        <v>0.270654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05524401366710663</v>
+        <v>0.09286824</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2043123480077711</v>
+        <v>0.3459059879764822</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.714009702205658</v>
+        <v>10.02030819654465</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05814876034855843</v>
+        <v>0.058124535</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2028645873069763</v>
+        <v>0.20282543</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07312458008527756</v>
+        <v>0.07311134</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2411405406574316</v>
+        <v>0.2410903042134783</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.477059215307236</v>
+        <v>7.475568354129791</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19449,23 +19449,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1589051373672562</v>
+        <v>0.2469590846070521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3346033968580309</v>
+        <v>0.3944190348858205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1212971000070311</v>
+        <v>0.1597242711642349</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3986290724059852</v>
+        <v>0.4969497807696992</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.78444939360164</v>
+        <v>15.97557913142189</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19887,19 +19887,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06979989354984259</v>
+        <v>0.9222299643132388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.203107038344959</v>
+        <v>0.6856951683544539</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07525896012293186</v>
+        <v>0.2721893671745569</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2641966948124874</v>
+        <v>0.9603280503626032</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.685645420712647</v>
+        <v>34.41885242692502</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08714348077774048</v>
+        <v>0.50109005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2219330817461014</v>
+        <v>0.5912537</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08903943747282028</v>
+        <v>0.263682</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2952007465738196</v>
+        <v>0.7078771431142924</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.394474536180496</v>
+        <v>21.08184397220612</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20053,23 +20053,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04853085055947304</v>
+        <v>0.11316059</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1760443300008774</v>
+        <v>0.26687554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06596138328313828</v>
+        <v>0.09338546</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2202971869077611</v>
+        <v>0.3363935014937607</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.373388320207596</v>
+        <v>9.913938492536545</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1528062522411346</v>
+        <v>0.15280709</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2836003303527832</v>
+        <v>0.28360382</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1281886845827103</v>
+        <v>0.12818952</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3909044029441657</v>
+        <v>0.3909054702944965</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.41268610954285</v>
+        <v>11.41282245516777</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2154030883485114</v>
+        <v>0.2946285974584508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3706467586563784</v>
+        <v>0.4223486547473625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1602710829538135</v>
+        <v>0.2220963072638243</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4641153825812191</v>
+        <v>0.5427970131259482</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.97283057020652</v>
+        <v>18.10860727852157</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5524755820151911</v>
+        <v>0.5715575327679101</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6264042990339881</v>
+        <v>0.4970030645673299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2374269007411977</v>
+        <v>0.2094800974456659</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.743287011870375</v>
+        <v>0.7560142411144847</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.08064636628446</v>
+        <v>23.76039959611601</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1800970882177353</v>
+        <v>0.9094173</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2735355198383331</v>
+        <v>0.80470866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1374019533395767</v>
+        <v>0.4288005</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4243784728491012</v>
+        <v>0.9536337198390558</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.16687580943108</v>
+        <v>28.74766290187836</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21075,23 +21075,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05698540061712265</v>
+        <v>0.26600316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1972772479057312</v>
+        <v>0.45233402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07470106333494186</v>
+        <v>0.16116993</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2387161507253387</v>
+        <v>0.5157549434264082</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.228100299835205</v>
+        <v>17.6747053861618</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9708685278892517</v>
+        <v>0.8928443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8433529734611511</v>
+        <v>0.7944616</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4448578655719757</v>
+        <v>0.42481235</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9853266097539697</v>
+        <v>0.9449043969331326</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.83133792877197</v>
+        <v>28.44671308994293</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21445,19 +21445,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21471,23 +21471,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02118740825880001</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1117496478683705</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1671922272895023</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1455589511462624</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>18.38859196311508</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21565,23 +21565,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02283838059752753</v>
+        <v>0.060833822766724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1089788945029543</v>
+        <v>0.1972598035198204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1573724934996189</v>
+        <v>0.65669034787747</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1511237261237544</v>
+        <v>0.2466451352991256</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.15340115482225</v>
+        <v>35.43478619013263</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21595,23 +21595,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02282940538325865</v>
+        <v>0.0607011894670931</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1084545720998825</v>
+        <v>0.196967326827684</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1554430207176177</v>
+        <v>0.6560856503131398</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1510940282845707</v>
+        <v>0.246376113832273</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.03420264360188</v>
+        <v>35.38738384498456</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01514492015141078</v>
+        <v>0.0605482152374781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09348226622515506</v>
+        <v>0.196802842292038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1314507667170479</v>
+        <v>0.6577627075443189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.123064699046521</v>
+        <v>0.2460654694130775</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>13.93389390104851</v>
+        <v>35.34839670695711</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.01527782513270732</v>
+        <v>0.0404751779404388</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.09471595895256735</v>
+        <v>0.1588863566985226</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1379294370391539</v>
+        <v>0.5531921608082764</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1236034996782345</v>
+        <v>0.2011844376199084</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>14.64121013683364</v>
+        <v>29.8056395054002</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22287,23 +22287,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02655385434627533</v>
+        <v>0.07196305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1344816386699677</v>
+        <v>0.20284742</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2426425218582153</v>
+        <v>0.8687216</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1629535343166122</v>
+        <v>0.2682592952189697</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.67508697509766</v>
+        <v>34.49227511882782</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22317,23 +22317,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0314946249127388</v>
+        <v>0.057926316</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1472607403993607</v>
+        <v>0.18890527</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.261135458946228</v>
+        <v>0.68994665</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1774672502540646</v>
+        <v>0.2406788644942814</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.48561382293701</v>
+        <v>33.76602232456207</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22349,23 +22349,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02552295103669167</v>
+        <v>0.04191594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1361615806818008</v>
+        <v>0.17027594</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2187761068344116</v>
+        <v>0.31938604</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1597590405476061</v>
+        <v>0.2047338229462124</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.25776451826096</v>
+        <v>25.18136501312256</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22379,23 +22379,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02637125924229622</v>
+        <v>0.040024888</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1376126855611801</v>
+        <v>0.17077091</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.219900906085968</v>
+        <v>0.31285867</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.162392300440311</v>
+        <v>0.2000622097509031</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.43975389003754</v>
+        <v>25.31208992004395</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.006314959143742</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1348703013849903</v>
+        <v>0.3823919863571255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3091253537734192</v>
+        <v>0.4864719792116769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1066406431851945</v>
+        <v>0.285681086761691</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3672469215459678</v>
+        <v>0.6183785138223397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.49944899748786</v>
+        <v>21.50714049571043</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1350465330223162</v>
+        <v>0.3823919863571255</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3093040188516005</v>
+        <v>0.4864719792116769</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1066999117259717</v>
+        <v>0.285681086761691</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3674867793843966</v>
+        <v>0.6183785138223397</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>11.50661068947318</v>
+        <v>21.50714049571043</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04128196547990724</v>
+        <v>0.6163167991028398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1495885121098528</v>
+        <v>0.581714675136385</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05306904839468349</v>
+        <v>0.3256962888562115</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2031796384481162</v>
+        <v>0.7850584685887031</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.536688980355999</v>
+        <v>26.40446585853952</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03948654394054946</v>
+        <v>0.6163167991028398</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1676164590731608</v>
+        <v>0.581714675136385</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.06122549266755041</v>
+        <v>0.3256962888562115</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1987122138685729</v>
+        <v>0.7850584685887031</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>6.384577027689383</v>
+        <v>26.40446585853952</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04550426080822945</v>
+        <v>0.7067414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1763916462659836</v>
+        <v>0.6106307</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06675609201192856</v>
+        <v>0.40676105</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.213317277331747</v>
+        <v>0.8406791258336662</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.387495249509811</v>
+        <v>23.82713556289673</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05297946929931641</v>
+        <v>0.82026815</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1929295659065247</v>
+        <v>0.69840324</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.06920795887708664</v>
+        <v>0.44452718</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2301726945128731</v>
+        <v>0.9056865650677872</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>6.983932852745056</v>
+        <v>26.42535269260406</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23659,23 +23659,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03526343405246735</v>
+        <v>0.3554002</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1476266831159592</v>
+        <v>0.53512</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05027861520648003</v>
+        <v>0.1860282</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.187785606616874</v>
+        <v>0.5961545140804591</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.192937701940536</v>
+        <v>20.93399316072464</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23689,23 +23689,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02913179993629456</v>
+        <v>0.1879478</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1373535245656967</v>
+        <v>0.3176876</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.04697148501873016</v>
+        <v>0.10742605</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1706804029064103</v>
+        <v>0.4335294624302209</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>4.823072254657745</v>
+        <v>11.90339773893356</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.84296891915625</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2159668868640098</v>
+        <v>0.4579098528463206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3706105882618447</v>
+        <v>0.5310872819461315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1601011132206822</v>
+        <v>0.3668608311418908</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.464722376117193</v>
+        <v>0.6766903670411754</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.97105534785007</v>
+        <v>24.45060673776825</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2158887447936731</v>
+        <v>0.4579098528463206</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3705918107490951</v>
+        <v>0.5310872819461315</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1600710913291719</v>
+        <v>0.3668608311418908</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4646382945837258</v>
+        <v>0.6766903670411754</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>14.97049481597648</v>
+        <v>24.45060673776825</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24768,19 +24768,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0925378711612473</v>
+        <v>0.5451106374953132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2035221331016652</v>
+        <v>0.5343684074216896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09488824564691559</v>
+        <v>0.376002727556102</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3042003799492159</v>
+        <v>0.7383160823761821</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>8.551763135141639</v>
+        <v>24.96578790184595</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.08598222866668009</v>
+        <v>0.5451106374953132</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2194526411764076</v>
+        <v>0.5343684074216896</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.08867745930545733</v>
+        <v>0.376002727556102</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2932272645350021</v>
+        <v>0.7383160823761821</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>8.942118317120592</v>
+        <v>24.96578790184595</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1998335868120193</v>
+        <v>1.8540903</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.281015932559967</v>
+        <v>1.1983232</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1460322886705399</v>
+        <v>0.7771085</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4470275011808774</v>
+        <v>1.36164985696945</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.43081933259964</v>
+        <v>41.31904542446136</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24938,23 +24938,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1691006124019623</v>
+        <v>0.6748238</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2694038152694702</v>
+        <v>0.5222997</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1339111477136612</v>
+        <v>0.45414805</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4112184485185</v>
+        <v>0.8214766098867167</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>11.021988093853</v>
+        <v>22.5171759724617</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24970,23 +24970,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06273440271615982</v>
+        <v>0.42115092</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2119255214929581</v>
+        <v>0.56806463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07968056946992874</v>
+        <v>0.22091496</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2504683666975928</v>
+        <v>0.6489614185568111</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.750237733125687</v>
+        <v>23.40817004442215</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25000,23 +25000,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05852317810058594</v>
+        <v>0.40450588</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.203957736492157</v>
+        <v>0.56430125</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07666804641485214</v>
+        <v>0.22012734</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2419156425297586</v>
+        <v>0.6360077662158733</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.465347647666931</v>
+        <v>23.19685369729996</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>8.937532340375366</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.152411342515789</v>
+        <v>0.4070907941835557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3288229237896212</v>
+        <v>0.5024702277237331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1196478930730264</v>
+        <v>0.3124093913499045</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3903989530157438</v>
+        <v>0.6380366715037277</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.54005853485303</v>
+        <v>22.56327425644376</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1523987659514019</v>
+        <v>0.4070907941835557</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3287872433612654</v>
+        <v>0.5024702277237331</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1196320854141947</v>
+        <v>0.3124093913499045</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3903828453600413</v>
+        <v>0.6380366715037277</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>12.53861148201535</v>
+        <v>22.56327425644376</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26079,19 +26079,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03680057544517754</v>
+        <v>0.5631349561412093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1496151496879791</v>
+        <v>0.5267485061071299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05603856082328411</v>
+        <v>0.3313345844789916</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1918347607843207</v>
+        <v>0.7504231847039438</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.67119634408681</v>
+        <v>24.24468323435756</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26109,19 +26109,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03539419643092066</v>
+        <v>0.5631349561412093</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1448859041476995</v>
+        <v>0.5267485061071299</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.05497466925521746</v>
+        <v>0.3313345844789916</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1881334537792805</v>
+        <v>0.7504231847039438</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>5.482934162166792</v>
+        <v>24.24468323435756</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26219,53 +26219,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.36440775</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.37455362</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.29511604</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.6036619484313489</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>17.18381941318512</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.1182957291603088</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2451522797346115</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.1034855246543884</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3439414618220793</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>9.21122208237648</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.09030716121196747</v>
+        <v>0.36013308</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2161716222763062</v>
+        <v>0.385988</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.08792337030172348</v>
+        <v>0.29467547</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3005114993007214</v>
+        <v>0.6001108911481076</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>8.186851441860199</v>
+        <v>17.6597461104393</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05203108116984367</v>
+        <v>0.1903257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1913111656904221</v>
+        <v>0.33109936</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07126018404960632</v>
+        <v>0.12061229</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.22810322481246</v>
+        <v>0.4362633461536613</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.912247091531754</v>
+        <v>12.61404007673264</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26311,23 +26311,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04887683317065239</v>
+        <v>0.20493968</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1900035440921783</v>
+        <v>0.34634638</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07033483684062958</v>
+        <v>0.12555781</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2210810556575402</v>
+        <v>0.4527026378444773</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.866482645273209</v>
+        <v>13.24944943189621</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03306811759656291</v>
+        <v>0.0298020095783391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1405085227769504</v>
+        <v>0.1360529154637661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1808432542962874</v>
+        <v>0.1877120553490084</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1818464121080284</v>
+        <v>0.1726325855055736</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.15844328250092</v>
+        <v>20.34569538861811</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03306595749701981</v>
+        <v>0.0297761999651084</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1405027396682731</v>
+        <v>0.1359765467497616</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1808323682277296</v>
+        <v>0.1876164883246308</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.181840472659471</v>
+        <v>0.1725578162967661</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.15749608905713</v>
+        <v>20.33302144377317</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27388,53 +27388,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0532872633682802</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1742563645789984</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2237743560550497</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2308403417262249</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.14063373437002</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.07172277983872234</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.1990420673130869</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.2534132916401117</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2678110898352089</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>31.85042533933137</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.06247127182878053</v>
+        <v>0.06591285266303711</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1946105551797913</v>
+        <v>0.2215787731067537</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2498622181610467</v>
+        <v>0.3097325897952699</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2499425370535806</v>
+        <v>0.256734985272824</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>30.37721605829951</v>
+        <v>38.25446578783964</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27532,23 +27532,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02709757350385189</v>
+        <v>0.04600804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.136105090379715</v>
+        <v>0.17593175</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1992005109786987</v>
+        <v>0.31372157</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1646134062093725</v>
+        <v>0.2144948467116892</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.31833475828171</v>
+        <v>24.89185780286789</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27562,23 +27562,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.01905192621052265</v>
+        <v>0.044050246</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1160478591918945</v>
+        <v>0.17135869</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1691844016313553</v>
+        <v>0.22656727</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1380287151665285</v>
+        <v>0.2098815058005994</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.54569059610367</v>
+        <v>26.49397253990173</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27594,23 +27594,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02318741753697395</v>
+        <v>0.022899037</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1166241094470024</v>
+        <v>0.13161482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1390637308359146</v>
+        <v>0.19482113</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1522741525570704</v>
+        <v>0.1513242783793617</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.60738086700439</v>
+        <v>17.10355877876282</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27624,23 +27624,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02586540579795837</v>
+        <v>0.059482098</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.142045184969902</v>
+        <v>0.20113732</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.188852846622467</v>
+        <v>0.26528233</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1608272545247178</v>
+        <v>0.2438895193027622</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.05100643634796</v>
+        <v>30.28096258640289</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04133733734488487</v>
+        <v>0.042297177</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1589220464229584</v>
+        <v>0.16179591</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2855264246463776</v>
+        <v>0.29032198</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2033158561078916</v>
+        <v>0.2056627749903591</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.72953242063522</v>
+        <v>23.07267487049103</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04615234956145287</v>
+        <v>0.046261188</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1760725528001785</v>
+        <v>0.17633519</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3134356141090393</v>
+        <v>0.31387416</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2148309790543554</v>
+        <v>0.2150841408444907</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.91102963685989</v>
+        <v>24.94195699691772</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04945443470418908</v>
+        <v>0.0531237635134461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1762570462213097</v>
+        <v>0.1838130063110197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3675329711099494</v>
+        <v>0.4929939502281726</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2223835306496169</v>
+        <v>0.2304859291007721</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.66420003190955</v>
+        <v>31.7450534616777</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04945666259715727</v>
+        <v>0.0531740989314902</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1762713795681788</v>
+        <v>0.183912380057539</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3675371497950072</v>
+        <v>0.4930970118440969</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2223885397163201</v>
+        <v>0.23059509737089</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.66661777314427</v>
+        <v>31.76159766997631</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28706,19 +28706,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05016421035023868</v>
+        <v>0.0535848287075955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1779620624788568</v>
+        <v>0.184779895671706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3714125642024546</v>
+        <v>0.4966655474129958</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2239736822714639</v>
+        <v>0.2314839707357629</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.9286835700689</v>
+        <v>31.88538743622637</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28736,19 +28736,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05016421035023868</v>
+        <v>0.0528825342744252</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1779620624788568</v>
+        <v>0.1828707195858484</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3714125642024546</v>
+        <v>0.4889674478849246</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2239736822714639</v>
+        <v>0.2299620278968361</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.9286835700689</v>
+        <v>31.61269993563516</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28846,23 +28846,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04900459945201874</v>
+        <v>0.080524944</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1802820861339569</v>
+        <v>0.22413869</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4250156581401825</v>
+        <v>0.71964943</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.221369825071121</v>
+        <v>0.2837691733944653</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.86121571063995</v>
+        <v>35.03223955631256</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28876,23 +28876,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03947554901242256</v>
+        <v>0.14467764</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1552308350801468</v>
+        <v>0.34918785</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3744630515575409</v>
+        <v>0.59104145</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1986845464861889</v>
+        <v>0.3803651390539995</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.27981698513031</v>
+        <v>68.54418516159058</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28908,23 +28908,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02908024005591869</v>
+        <v>0.04792994</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1514818072319031</v>
+        <v>0.18026505</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2343924641609192</v>
+        <v>0.26235557</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.170529293835161</v>
+        <v>0.2189290727212567</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.68613076210022</v>
+        <v>28.13174724578857</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28938,23 +28938,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03519392386078835</v>
+        <v>0.055960644</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1554836630821228</v>
+        <v>0.19586325</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2533145248889923</v>
+        <v>0.30331662</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1876004367286717</v>
+        <v>0.2365600220589511</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>22.13965803384781</v>
+        <v>30.15758991241455</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0623241625726223</v>
+        <v>0.062478118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1876882165670395</v>
+        <v>0.18811171</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6639290452003479</v>
+        <v>0.6647994</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.249648077446277</v>
+        <v>0.2499562314582031</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.93401193618774</v>
+        <v>30.98526895046234</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05044147744774818</v>
+        <v>0.050413452</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1723352372646332</v>
+        <v>0.17222545</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5307855606079102</v>
+        <v>0.5298204399999999</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2245918018266655</v>
+        <v>0.224529401390626</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>29.5109897851944</v>
+        <v>29.49958145618439</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03853294201285304</v>
+        <v>0.041403896103447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1568137925134822</v>
+        <v>0.163070285354393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2434146469468482</v>
+        <v>0.3282346095317329</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1962980947764217</v>
+        <v>0.2034794734204093</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.04336595950461</v>
+        <v>26.99828142237056</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0385306773744275</v>
+        <v>0.0414179267968155</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.156840536188095</v>
+        <v>0.1630857259459684</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2434525177214937</v>
+        <v>0.3283207837747359</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1962923263258844</v>
+        <v>0.2035139474257613</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>24.04791896207513</v>
+        <v>27.0004040165112</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30014,23 +30014,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03123995660583838</v>
+        <v>0.0417904533094987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1423828769449949</v>
+        <v>0.1639137522339672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2456902103357757</v>
+        <v>0.3302368477649476</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1767482860053765</v>
+        <v>0.2044271344746062</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.79476890594404</v>
+        <v>27.13095279106868</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30048,19 +30048,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03928414323802915</v>
+        <v>0.0417904533094987</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1583265585977369</v>
+        <v>0.1639137522339672</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2457944721322727</v>
+        <v>0.3302368477649476</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1982022785893975</v>
+        <v>0.2044271344746062</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.28600325196454</v>
+        <v>27.13095279106868</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30158,23 +30158,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02990392409265041</v>
+        <v>0.07674091</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1413283944129944</v>
+        <v>0.22261521</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2518518269062042</v>
+        <v>0.55092937</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1729275110925107</v>
+        <v>0.2770215029435261</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.62983864545822</v>
+        <v>33.1730991601944</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30188,23 +30188,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03198400139808655</v>
+        <v>0.15667991</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1426226943731308</v>
+        <v>0.3127601</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2533494234085083</v>
+        <v>0.76774615</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1788407151576132</v>
+        <v>0.3958281361924688</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.77412062883377</v>
+        <v>41.49614870548248</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30220,23 +30220,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02466128394007683</v>
+        <v>0.023658784</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1329519897699356</v>
+        <v>0.12087356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.209674209356308</v>
+        <v>0.19316879</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1570391159554741</v>
+        <v>0.1538141219341507</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.8138946890831</v>
+        <v>18.49703192710876</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30250,23 +30250,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01662682928144932</v>
+        <v>0.039888937</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1079083383083344</v>
+        <v>0.1561534</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.171098455786705</v>
+        <v>0.2030853</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1289450630363541</v>
+        <v>0.199722149563493</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.43371975421906</v>
+        <v>24.05437082052231</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1636638641357422</v>
+        <v>0.17165568</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3480426967144012</v>
+        <v>0.35333502</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7951234579086304</v>
+        <v>0.8180117</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.404553907576904</v>
+        <v>0.4143135101701958</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>45.44857740402222</v>
+        <v>45.8261787891388</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.0318123884499073</v>
+        <v>0.03170303</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1423952132463455</v>
+        <v>0.14224744</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3100742101669312</v>
+        <v>0.30974403</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1783602771076209</v>
+        <v>0.1780534437406523</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.65395033359528</v>
+        <v>24.63519424200058</v>
       </c>
     </row>
   </sheetData>
